--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1394.070204522794</v>
+        <v>1549.300143132354</v>
       </c>
       <c r="AB2" t="n">
-        <v>1907.428355864915</v>
+        <v>2119.82080613208</v>
       </c>
       <c r="AC2" t="n">
-        <v>1725.386070673678</v>
+        <v>1917.50808358202</v>
       </c>
       <c r="AD2" t="n">
-        <v>1394070.204522794</v>
+        <v>1549300.143132354</v>
       </c>
       <c r="AE2" t="n">
-        <v>1907428.355864915</v>
+        <v>2119820.80613208</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.003753450548892e-07</v>
+        <v>1.298039094405526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.75578703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1725386.070673678</v>
+        <v>1917508.08358202</v>
       </c>
     </row>
     <row r="3">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>852.3757765551289</v>
+        <v>955.8909387549102</v>
       </c>
       <c r="AB3" t="n">
-        <v>1166.258141648021</v>
+        <v>1307.892153336412</v>
       </c>
       <c r="AC3" t="n">
-        <v>1054.952101462715</v>
+        <v>1183.06876186015</v>
       </c>
       <c r="AD3" t="n">
-        <v>852375.776555129</v>
+        <v>955890.9387549101</v>
       </c>
       <c r="AE3" t="n">
-        <v>1166258.141648021</v>
+        <v>1307892.153336412</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262384634220974e-06</v>
+        <v>1.819935004212881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.07407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1054952.101462715</v>
+        <v>1183068.76186015</v>
       </c>
     </row>
     <row r="4">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>728.5048565130527</v>
+        <v>823.471902263371</v>
       </c>
       <c r="AB4" t="n">
-        <v>996.772484047146</v>
+        <v>1126.7105856931</v>
       </c>
       <c r="AC4" t="n">
-        <v>901.6419171486536</v>
+        <v>1019.178908742788</v>
       </c>
       <c r="AD4" t="n">
-        <v>728504.8565130527</v>
+        <v>823471.902263371</v>
       </c>
       <c r="AE4" t="n">
-        <v>996772.484047146</v>
+        <v>1126710.5856931</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401400822879414e-06</v>
+        <v>2.020349696402069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.68981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>901641.9171486537</v>
+        <v>1019178.908742788</v>
       </c>
     </row>
     <row r="5">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>674.3692444971431</v>
+        <v>769.25094939289</v>
       </c>
       <c r="AB5" t="n">
-        <v>922.701751392334</v>
+        <v>1052.52308591609</v>
       </c>
       <c r="AC5" t="n">
-        <v>834.6403912594905</v>
+        <v>952.0717598216862</v>
       </c>
       <c r="AD5" t="n">
-        <v>674369.2444971431</v>
+        <v>769250.94939289</v>
       </c>
       <c r="AE5" t="n">
-        <v>922701.751392334</v>
+        <v>1052523.08591609</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.477394938855523e-06</v>
+        <v>2.129907709094836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>834640.3912594905</v>
+        <v>952071.7598216862</v>
       </c>
     </row>
     <row r="6">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>639.5232075534382</v>
+        <v>734.3195715946133</v>
       </c>
       <c r="AB6" t="n">
-        <v>875.0238663473041</v>
+        <v>1004.728433748862</v>
       </c>
       <c r="AC6" t="n">
-        <v>791.5128166468262</v>
+        <v>908.8385621770832</v>
       </c>
       <c r="AD6" t="n">
-        <v>639523.2075534381</v>
+        <v>734319.5715946133</v>
       </c>
       <c r="AE6" t="n">
-        <v>875023.8663473041</v>
+        <v>1004728.433748862</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524136309428251e-06</v>
+        <v>2.197293079721347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.94212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>791512.8166468262</v>
+        <v>908838.5621770832</v>
       </c>
     </row>
     <row r="7">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>619.5136731465877</v>
+        <v>705.6767589008302</v>
       </c>
       <c r="AB7" t="n">
-        <v>847.6459386134951</v>
+        <v>965.5380737895148</v>
       </c>
       <c r="AC7" t="n">
-        <v>766.7477999107691</v>
+        <v>873.3884751682406</v>
       </c>
       <c r="AD7" t="n">
-        <v>619513.6731465877</v>
+        <v>705676.7589008303</v>
       </c>
       <c r="AE7" t="n">
-        <v>847645.9386134951</v>
+        <v>965538.0737895148</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.558640894221827e-06</v>
+        <v>2.247037111745637e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.49652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>766747.7999107691</v>
+        <v>873388.4751682406</v>
       </c>
     </row>
     <row r="8">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>606.7606131341296</v>
+        <v>692.9236988883722</v>
       </c>
       <c r="AB8" t="n">
-        <v>830.1966392791502</v>
+        <v>948.0887744551701</v>
       </c>
       <c r="AC8" t="n">
-        <v>750.9638372146487</v>
+        <v>857.6045124721202</v>
       </c>
       <c r="AD8" t="n">
-        <v>606760.6131341296</v>
+        <v>692923.6988883722</v>
       </c>
       <c r="AE8" t="n">
-        <v>830196.6392791502</v>
+        <v>948088.7744551701</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.57980580696431e-06</v>
+        <v>2.277549813276519e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.23611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>750963.8372146487</v>
+        <v>857604.5124721202</v>
       </c>
     </row>
     <row r="9">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>586.2047917299257</v>
+        <v>672.4531288301889</v>
       </c>
       <c r="AB9" t="n">
-        <v>802.0712575750809</v>
+        <v>920.08003740375</v>
       </c>
       <c r="AC9" t="n">
-        <v>725.5227024661946</v>
+        <v>832.2688899743785</v>
       </c>
       <c r="AD9" t="n">
-        <v>586204.7917299257</v>
+        <v>672453.1288301889</v>
       </c>
       <c r="AE9" t="n">
-        <v>802071.257575081</v>
+        <v>920080.03740375</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.599972870222656e-06</v>
+        <v>2.306623950715373e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.99884259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>725522.7024661945</v>
+        <v>832268.8899743784</v>
       </c>
     </row>
     <row r="10">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>576.9044464161933</v>
+        <v>663.1527835164566</v>
       </c>
       <c r="AB10" t="n">
-        <v>789.3461148145548</v>
+        <v>907.3548946432239</v>
       </c>
       <c r="AC10" t="n">
-        <v>714.012029470883</v>
+        <v>820.7582169790668</v>
       </c>
       <c r="AD10" t="n">
-        <v>576904.4464161933</v>
+        <v>663152.7835164566</v>
       </c>
       <c r="AE10" t="n">
-        <v>789346.1148145548</v>
+        <v>907354.894643224</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.612419729577415e-06</v>
+        <v>2.324568144915916e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.84837962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>714012.0294708831</v>
+        <v>820758.2169790668</v>
       </c>
     </row>
     <row r="11">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>569.4247607353767</v>
+        <v>655.67309783564</v>
       </c>
       <c r="AB11" t="n">
-        <v>779.1120788856181</v>
+        <v>897.1208587142872</v>
       </c>
       <c r="AC11" t="n">
-        <v>704.7547155674445</v>
+        <v>811.5009030756282</v>
       </c>
       <c r="AD11" t="n">
-        <v>569424.7607353767</v>
+        <v>655673.09783564</v>
       </c>
       <c r="AE11" t="n">
-        <v>779112.0788856181</v>
+        <v>897120.8587142873</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.622398224418785e-06</v>
+        <v>2.338953785836183e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.73263888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>704754.7155674445</v>
+        <v>811500.9030756282</v>
       </c>
     </row>
     <row r="12">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>561.4366784304348</v>
+        <v>647.685015530698</v>
       </c>
       <c r="AB12" t="n">
-        <v>768.182432266677</v>
+        <v>886.1912120953461</v>
       </c>
       <c r="AC12" t="n">
-        <v>694.8681790819599</v>
+        <v>801.6143665901434</v>
       </c>
       <c r="AD12" t="n">
-        <v>561436.6784304348</v>
+        <v>647685.015530698</v>
       </c>
       <c r="AE12" t="n">
-        <v>768182.432266677</v>
+        <v>886191.2120953462</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.633217013562584e-06</v>
+        <v>2.354550849149735e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>694868.1790819599</v>
+        <v>801614.3665901434</v>
       </c>
     </row>
     <row r="13">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>554.3243615718391</v>
+        <v>640.5726986721023</v>
       </c>
       <c r="AB13" t="n">
-        <v>758.4510465674717</v>
+        <v>876.4598263961409</v>
       </c>
       <c r="AC13" t="n">
-        <v>686.0655431758009</v>
+        <v>792.8117306839846</v>
       </c>
       <c r="AD13" t="n">
-        <v>554324.3615718391</v>
+        <v>640572.6986721023</v>
       </c>
       <c r="AE13" t="n">
-        <v>758451.0465674717</v>
+        <v>876459.8263961409</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.640254478345445e-06</v>
+        <v>2.364696511693502e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.5300925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>686065.5431758009</v>
+        <v>792811.7306839846</v>
       </c>
     </row>
     <row r="14">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>547.1082084761164</v>
+        <v>624.7232672894473</v>
       </c>
       <c r="AB14" t="n">
-        <v>748.5775875476976</v>
+        <v>854.7739351508285</v>
       </c>
       <c r="AC14" t="n">
-        <v>677.1343932273875</v>
+        <v>773.1955104627854</v>
       </c>
       <c r="AD14" t="n">
-        <v>547108.2084761164</v>
+        <v>624723.2672894474</v>
       </c>
       <c r="AE14" t="n">
-        <v>748577.5875476976</v>
+        <v>854773.9351508284</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.647554535097815e-06</v>
+        <v>2.375220743735171e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.44907407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>677134.3932273875</v>
+        <v>773195.5104627854</v>
       </c>
     </row>
     <row r="15">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>540.5271029437231</v>
+        <v>618.1421617570541</v>
       </c>
       <c r="AB15" t="n">
-        <v>739.5730286203921</v>
+        <v>845.7693762235228</v>
       </c>
       <c r="AC15" t="n">
-        <v>668.9892167661261</v>
+        <v>765.0503340015239</v>
       </c>
       <c r="AD15" t="n">
-        <v>540527.1029437231</v>
+        <v>618142.161757054</v>
       </c>
       <c r="AE15" t="n">
-        <v>739573.0286203921</v>
+        <v>845769.3762235228</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.653699187184342e-06</v>
+        <v>2.384079269986072e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.37962962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>668989.2167661261</v>
+        <v>765050.3340015239</v>
       </c>
     </row>
     <row r="16">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>532.8898423389127</v>
+        <v>610.5049011522434</v>
       </c>
       <c r="AB16" t="n">
-        <v>729.123391728732</v>
+        <v>835.3197393318627</v>
       </c>
       <c r="AC16" t="n">
-        <v>659.5368785532485</v>
+        <v>755.5979957886464</v>
       </c>
       <c r="AD16" t="n">
-        <v>532889.8423389127</v>
+        <v>610504.9011522434</v>
       </c>
       <c r="AE16" t="n">
-        <v>729123.391728732</v>
+        <v>835319.7393318627</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.657112882787968e-06</v>
+        <v>2.389000673458794e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.33912037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>659536.8785532485</v>
+        <v>755597.9957886464</v>
       </c>
     </row>
     <row r="17">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>528.5735017546255</v>
+        <v>606.1885605679564</v>
       </c>
       <c r="AB17" t="n">
-        <v>723.2175841178033</v>
+        <v>829.413931720934</v>
       </c>
       <c r="AC17" t="n">
-        <v>654.1947129318537</v>
+        <v>750.2558301672516</v>
       </c>
       <c r="AD17" t="n">
-        <v>528573.5017546255</v>
+        <v>606188.5605679564</v>
       </c>
       <c r="AE17" t="n">
-        <v>723217.5841178033</v>
+        <v>829413.931720934</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.6606841335733e-06</v>
+        <v>2.394149218630258e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>654194.7129318537</v>
+        <v>750255.8301672516</v>
       </c>
     </row>
     <row r="18">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>525.4134138773566</v>
+        <v>603.0284726906875</v>
       </c>
       <c r="AB18" t="n">
-        <v>718.8938124708861</v>
+        <v>825.0901600740169</v>
       </c>
       <c r="AC18" t="n">
-        <v>650.2835959824667</v>
+        <v>746.3447132178646</v>
       </c>
       <c r="AD18" t="n">
-        <v>525413.4138773566</v>
+        <v>603028.4726906875</v>
       </c>
       <c r="AE18" t="n">
-        <v>718893.8124708862</v>
+        <v>825090.1600740169</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.664412939540338e-06</v>
+        <v>2.399524905500463e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.25810185185185</v>
       </c>
       <c r="AH18" t="n">
-        <v>650283.5959824667</v>
+        <v>746344.7132178646</v>
       </c>
     </row>
     <row r="19">
@@ -6954,28 +6954,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>524.4854068991284</v>
+        <v>602.1004657124593</v>
       </c>
       <c r="AB19" t="n">
-        <v>717.624072382496</v>
+        <v>823.8204199856266</v>
       </c>
       <c r="AC19" t="n">
-        <v>649.1350381060212</v>
+        <v>745.1961553414189</v>
       </c>
       <c r="AD19" t="n">
-        <v>524485.4068991285</v>
+        <v>602100.4657124593</v>
       </c>
       <c r="AE19" t="n">
-        <v>717624.072382496</v>
+        <v>823820.4199856266</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.66420286596473e-06</v>
+        <v>2.399222049902142e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>649135.0381060211</v>
+        <v>745196.1553414189</v>
       </c>
     </row>
     <row r="20">
@@ -7060,28 +7060,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>526.216679167274</v>
+        <v>603.8317379806049</v>
       </c>
       <c r="AB20" t="n">
-        <v>719.9928754781147</v>
+        <v>826.1892230812455</v>
       </c>
       <c r="AC20" t="n">
-        <v>651.2777659588301</v>
+        <v>747.3388831942279</v>
       </c>
       <c r="AD20" t="n">
-        <v>526216.679167274</v>
+        <v>603831.7379806049</v>
       </c>
       <c r="AE20" t="n">
-        <v>719992.8754781147</v>
+        <v>826189.2230812454</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.663625163631809e-06</v>
+        <v>2.398389197006758e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.26967592592593</v>
       </c>
       <c r="AH20" t="n">
-        <v>651277.76595883</v>
+        <v>747338.8831942279</v>
       </c>
     </row>
   </sheetData>
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1059.862271523044</v>
+        <v>1186.123624848089</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.150317721247</v>
+        <v>1622.906671598354</v>
       </c>
       <c r="AC2" t="n">
-        <v>1311.750006696684</v>
+        <v>1468.018736624825</v>
       </c>
       <c r="AD2" t="n">
-        <v>1059862.271523044</v>
+        <v>1186123.624848089</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450150.317721247</v>
+        <v>1622906.671598354</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.065130704549893e-06</v>
+        <v>1.559311282359274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.51967592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1311750.006696684</v>
+        <v>1468018.736624825</v>
       </c>
     </row>
     <row r="3">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>707.7556356856397</v>
+        <v>808.5087852905123</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.3824847200619</v>
+        <v>1106.237388924703</v>
       </c>
       <c r="AC3" t="n">
-        <v>875.9614195117319</v>
+        <v>1000.659645139655</v>
       </c>
       <c r="AD3" t="n">
-        <v>707755.6356856397</v>
+        <v>808508.7852905123</v>
       </c>
       <c r="AE3" t="n">
-        <v>968382.4847200619</v>
+        <v>1106237.388924703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.398279466615689e-06</v>
+        <v>2.047028537316024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.48263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>875961.4195117319</v>
+        <v>1000659.645139655</v>
       </c>
     </row>
     <row r="4">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.8435076487013</v>
+        <v>713.3498258991631</v>
       </c>
       <c r="AB4" t="n">
-        <v>849.4654768474444</v>
+        <v>976.0367025684585</v>
       </c>
       <c r="AC4" t="n">
-        <v>768.3936839694085</v>
+        <v>882.8851295514398</v>
       </c>
       <c r="AD4" t="n">
-        <v>620843.5076487013</v>
+        <v>713349.825899163</v>
       </c>
       <c r="AE4" t="n">
-        <v>849465.4768474444</v>
+        <v>976036.7025684585</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524161019405391e-06</v>
+        <v>2.231314395067946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.63078703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>768393.6839694085</v>
+        <v>882885.1295514398</v>
       </c>
     </row>
     <row r="5">
@@ -7675,28 +7675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.2988567608803</v>
+        <v>663.4730923109106</v>
       </c>
       <c r="AB5" t="n">
-        <v>792.6222526820848</v>
+        <v>907.7931552668225</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.9754973384245</v>
+        <v>821.1546506238517</v>
       </c>
       <c r="AD5" t="n">
-        <v>579298.8567608803</v>
+        <v>663473.0923109106</v>
       </c>
       <c r="AE5" t="n">
-        <v>792622.2526820848</v>
+        <v>907793.1552668225</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589519460495598e-06</v>
+        <v>2.326996694107895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.78009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>716975.4973384244</v>
+        <v>821154.6506238517</v>
       </c>
     </row>
     <row r="6">
@@ -7781,28 +7781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>559.1841826564078</v>
+        <v>643.1878260058457</v>
       </c>
       <c r="AB6" t="n">
-        <v>765.1004681755531</v>
+        <v>880.0379589854439</v>
       </c>
       <c r="AC6" t="n">
-        <v>692.0803533181289</v>
+        <v>796.0483713209053</v>
       </c>
       <c r="AD6" t="n">
-        <v>559184.1826564077</v>
+        <v>643187.8260058458</v>
       </c>
       <c r="AE6" t="n">
-        <v>765100.4681755531</v>
+        <v>880037.9589854439</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.629125697864478e-06</v>
+        <v>2.384978735670758e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.29976851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>692080.353318129</v>
+        <v>796048.3713209053</v>
       </c>
     </row>
     <row r="7">
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.8137508440524</v>
+        <v>618.9026455395111</v>
       </c>
       <c r="AB7" t="n">
-        <v>731.7557682223172</v>
+        <v>846.8099036848573</v>
       </c>
       <c r="AC7" t="n">
-        <v>661.9180247288496</v>
+        <v>765.9915549823384</v>
       </c>
       <c r="AD7" t="n">
-        <v>534813.7508440524</v>
+        <v>618902.6455395111</v>
       </c>
       <c r="AE7" t="n">
-        <v>731755.7682223172</v>
+        <v>846809.9036848573</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.657214071965589e-06</v>
+        <v>2.426099058699563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.96990740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>661918.0247288495</v>
+        <v>765991.5549823383</v>
       </c>
     </row>
     <row r="8">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>523.4783856177738</v>
+        <v>607.5672803132326</v>
       </c>
       <c r="AB8" t="n">
-        <v>716.2462214387033</v>
+        <v>831.3003569012433</v>
       </c>
       <c r="AC8" t="n">
-        <v>647.8886873224781</v>
+        <v>751.9622175759666</v>
       </c>
       <c r="AD8" t="n">
-        <v>523478.3856177739</v>
+        <v>607567.2803132326</v>
       </c>
       <c r="AE8" t="n">
-        <v>716246.2214387032</v>
+        <v>831300.3569012433</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.67541446911041e-06</v>
+        <v>2.452743755439699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.76736111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>647888.687322478</v>
+        <v>751962.2175759666</v>
       </c>
     </row>
     <row r="9">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>511.8396339588115</v>
+        <v>595.9285286542702</v>
       </c>
       <c r="AB9" t="n">
-        <v>700.3215679534263</v>
+        <v>815.3757034159663</v>
       </c>
       <c r="AC9" t="n">
-        <v>633.4838604154444</v>
+        <v>737.5573906689331</v>
       </c>
       <c r="AD9" t="n">
-        <v>511839.6339588115</v>
+        <v>595928.5286542702</v>
       </c>
       <c r="AE9" t="n">
-        <v>700321.5679534263</v>
+        <v>815375.7034159664</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.691713332225175e-06</v>
+        <v>2.476604677893552e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.58796296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>633483.8604154444</v>
+        <v>737557.390668933</v>
       </c>
     </row>
     <row r="10">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>503.2933986530717</v>
+        <v>578.9649593020783</v>
       </c>
       <c r="AB10" t="n">
-        <v>688.628231774821</v>
+        <v>792.1653994484357</v>
       </c>
       <c r="AC10" t="n">
-        <v>622.9065198300248</v>
+        <v>716.5622455361972</v>
       </c>
       <c r="AD10" t="n">
-        <v>503293.3986530717</v>
+        <v>578964.9593020784</v>
       </c>
       <c r="AE10" t="n">
-        <v>688628.2317748209</v>
+        <v>792165.3994484356</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.704535104542124e-06</v>
+        <v>2.495375270223916e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.44328703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>622906.5198300248</v>
+        <v>716562.2455361972</v>
       </c>
     </row>
     <row r="11">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>492.3710706965379</v>
+        <v>568.0426313455446</v>
       </c>
       <c r="AB11" t="n">
-        <v>673.6838208055899</v>
+        <v>777.2209884792047</v>
       </c>
       <c r="AC11" t="n">
-        <v>609.3883824690846</v>
+        <v>703.044108175257</v>
       </c>
       <c r="AD11" t="n">
-        <v>492371.0706965378</v>
+        <v>568042.6313455446</v>
       </c>
       <c r="AE11" t="n">
-        <v>673683.8208055899</v>
+        <v>777220.9884792047</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.715292354197869e-06</v>
+        <v>2.511123479043459e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.3275462962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>609388.3824690846</v>
+        <v>703044.108175257</v>
       </c>
     </row>
     <row r="12">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>483.7428769641096</v>
+        <v>559.4144376131163</v>
       </c>
       <c r="AB12" t="n">
-        <v>661.8783454918391</v>
+        <v>765.4155131654537</v>
       </c>
       <c r="AC12" t="n">
-        <v>598.7096051501895</v>
+        <v>692.3653308563619</v>
       </c>
       <c r="AD12" t="n">
-        <v>483742.8769641096</v>
+        <v>559414.4376131163</v>
       </c>
       <c r="AE12" t="n">
-        <v>661878.3454918391</v>
+        <v>765415.5131654537</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.721322933550332e-06</v>
+        <v>2.519952020351384e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>598709.6051501895</v>
+        <v>692365.3308563619</v>
       </c>
     </row>
     <row r="13">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>479.488379795023</v>
+        <v>555.1599404440298</v>
       </c>
       <c r="AB13" t="n">
-        <v>656.0571547699265</v>
+        <v>759.5943224435412</v>
       </c>
       <c r="AC13" t="n">
-        <v>593.4439807006837</v>
+        <v>687.0997064068561</v>
       </c>
       <c r="AD13" t="n">
-        <v>479488.379795023</v>
+        <v>555159.9404440298</v>
       </c>
       <c r="AE13" t="n">
-        <v>656057.1547699264</v>
+        <v>759594.3224435411</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.727353512902795e-06</v>
+        <v>2.52878056165931e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.20023148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>593443.9807006837</v>
+        <v>687099.7064068561</v>
       </c>
     </row>
     <row r="14">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>481.3787331325158</v>
+        <v>557.0502937815226</v>
       </c>
       <c r="AB14" t="n">
-        <v>658.6436196027876</v>
+        <v>762.1807872764024</v>
       </c>
       <c r="AC14" t="n">
-        <v>595.7835969600228</v>
+        <v>689.4393226661952</v>
       </c>
       <c r="AD14" t="n">
-        <v>481378.7331325158</v>
+        <v>557050.2937815225</v>
       </c>
       <c r="AE14" t="n">
-        <v>658643.6196027875</v>
+        <v>762180.7872764023</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.72556063796017e-06</v>
+        <v>2.526155860189386e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>595783.5969600228</v>
+        <v>689439.3226661951</v>
       </c>
     </row>
     <row r="15">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>483.0287603506188</v>
+        <v>558.7003209996253</v>
       </c>
       <c r="AB15" t="n">
-        <v>660.9012596366591</v>
+        <v>764.4384273102739</v>
       </c>
       <c r="AC15" t="n">
-        <v>597.8257709976793</v>
+        <v>691.4814967038517</v>
       </c>
       <c r="AD15" t="n">
-        <v>483028.7603506187</v>
+        <v>558700.3209996254</v>
       </c>
       <c r="AE15" t="n">
-        <v>660901.2596366592</v>
+        <v>764438.427310274</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.725614967503886e-06</v>
+        <v>2.526235396597566e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH15" t="n">
-        <v>597825.7709976793</v>
+        <v>691481.4967038517</v>
       </c>
     </row>
   </sheetData>
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.9291758833364</v>
+        <v>610.2841006139543</v>
       </c>
       <c r="AB2" t="n">
-        <v>718.231256684395</v>
+        <v>835.017630294343</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.6842735903356</v>
+        <v>755.324719613655</v>
       </c>
       <c r="AD2" t="n">
-        <v>524929.1758833363</v>
+        <v>610284.1006139542</v>
       </c>
       <c r="AE2" t="n">
-        <v>718231.256684395</v>
+        <v>835017.630294343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582646389603411e-06</v>
+        <v>2.448549315373881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.17013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>649684.2735903356</v>
+        <v>755324.719613655</v>
       </c>
     </row>
     <row r="3">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.9323444938825</v>
+        <v>495.4346396356889</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.8334716102903</v>
+        <v>677.875530983259</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.2584876531215</v>
+        <v>613.1800417104992</v>
       </c>
       <c r="AD3" t="n">
-        <v>417932.3444938825</v>
+        <v>495434.6396356889</v>
       </c>
       <c r="AE3" t="n">
-        <v>571833.4716102903</v>
+        <v>677875.530983259</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.812592676118609e-06</v>
+        <v>2.804304603553346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.35763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>517258.4876531215</v>
+        <v>613180.0417104992</v>
       </c>
     </row>
     <row r="4">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.2364693541643</v>
+        <v>457.8240158419913</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.2563122194872</v>
+        <v>626.4150162451053</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.6037799655788</v>
+        <v>566.6308462736687</v>
       </c>
       <c r="AD4" t="n">
-        <v>380236.4693541643</v>
+        <v>457824.0158419913</v>
       </c>
       <c r="AE4" t="n">
-        <v>520256.3122194872</v>
+        <v>626415.0162451053</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.889463725763025e-06</v>
+        <v>2.923233605771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>470603.7799655788</v>
+        <v>566630.8462736687</v>
       </c>
     </row>
     <row r="5">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.4211436696879</v>
+        <v>441.2414909318259</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.1947947132647</v>
+        <v>603.7260740936497</v>
       </c>
       <c r="AC5" t="n">
-        <v>459.6933967617041</v>
+        <v>546.1073049170177</v>
       </c>
       <c r="AD5" t="n">
-        <v>371421.1436696879</v>
+        <v>441241.4909318259</v>
       </c>
       <c r="AE5" t="n">
-        <v>508194.7947132647</v>
+        <v>603726.0740936496</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.911106442421587e-06</v>
+        <v>2.956717559865403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>459693.3967617041</v>
+        <v>546107.3049170177</v>
       </c>
     </row>
     <row r="6">
@@ -9456,28 +9456,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>373.6210965559061</v>
+        <v>443.4414438180442</v>
       </c>
       <c r="AB6" t="n">
-        <v>511.20486730726</v>
+        <v>606.736146687645</v>
       </c>
       <c r="AC6" t="n">
-        <v>462.4161922519918</v>
+        <v>548.8301004073055</v>
       </c>
       <c r="AD6" t="n">
-        <v>373621.0965559061</v>
+        <v>443441.4438180442</v>
       </c>
       <c r="AE6" t="n">
-        <v>511204.8673072601</v>
+        <v>606736.146687645</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.910439580003536e-06</v>
+        <v>2.955685841391906e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.36226851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>462416.1922519918</v>
+        <v>548830.1004073055</v>
       </c>
     </row>
   </sheetData>
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.968893263876</v>
+        <v>777.1412280587904</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.7316819909327</v>
+        <v>1063.318913281302</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.808517955346</v>
+        <v>961.837248575202</v>
       </c>
       <c r="AD2" t="n">
-        <v>680968.893263876</v>
+        <v>777141.2280587903</v>
       </c>
       <c r="AE2" t="n">
-        <v>931731.6819909327</v>
+        <v>1063318.913281302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377310843676298e-06</v>
+        <v>2.081521570714211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.36921296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>842808.517955346</v>
+        <v>961837.248575202</v>
       </c>
     </row>
     <row r="3">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.8472080792761</v>
+        <v>596.9766118507014</v>
       </c>
       <c r="AB3" t="n">
-        <v>707.1731517836245</v>
+        <v>816.8097370834909</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.6815387011467</v>
+        <v>738.8545621759079</v>
       </c>
       <c r="AD3" t="n">
-        <v>516847.2080792761</v>
+        <v>596976.6118507014</v>
       </c>
       <c r="AE3" t="n">
-        <v>707173.1517836244</v>
+        <v>816809.7370834908</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.647170509990338e-06</v>
+        <v>2.489358856739696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.37615740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>639681.5387011467</v>
+        <v>738854.5621759079</v>
       </c>
     </row>
     <row r="4">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.5771033007587</v>
+        <v>549.6211662176123</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.496109015815</v>
+        <v>752.0159271934837</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.1771821202974</v>
+        <v>680.2445825631197</v>
       </c>
       <c r="AD4" t="n">
-        <v>469577.1033007587</v>
+        <v>549621.1662176123</v>
       </c>
       <c r="AE4" t="n">
-        <v>642496.1090158151</v>
+        <v>752015.9271934837</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.74385137475404e-06</v>
+        <v>2.635472064520587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.24768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>581177.1821202975</v>
+        <v>680244.5825631197</v>
       </c>
     </row>
     <row r="5">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.0013648268197</v>
+        <v>518.1306790896939</v>
       </c>
       <c r="AB5" t="n">
-        <v>599.292790612505</v>
+        <v>708.929253442823</v>
       </c>
       <c r="AC5" t="n">
-        <v>542.0971277891609</v>
+        <v>641.2700404826954</v>
       </c>
       <c r="AD5" t="n">
-        <v>438001.3648268197</v>
+        <v>518130.6790896939</v>
       </c>
       <c r="AE5" t="n">
-        <v>599292.7906125049</v>
+        <v>708929.253442823</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.796396583797779e-06</v>
+        <v>2.714883322018779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.68634259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>542097.1277891609</v>
+        <v>641270.0404826954</v>
       </c>
     </row>
     <row r="6">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.8346914858253</v>
+        <v>493.9426297455061</v>
       </c>
       <c r="AB6" t="n">
-        <v>577.1728349240653</v>
+        <v>675.8340972286802</v>
       </c>
       <c r="AC6" t="n">
-        <v>522.0882696260733</v>
+        <v>611.333439528287</v>
       </c>
       <c r="AD6" t="n">
-        <v>421834.6914858253</v>
+        <v>493942.6297455061</v>
       </c>
       <c r="AE6" t="n">
-        <v>577172.8349240654</v>
+        <v>675834.0972286802</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.825105058937571e-06</v>
+        <v>2.75827026734064e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.39120370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>522088.2696260733</v>
+        <v>611333.439528287</v>
       </c>
     </row>
     <row r="7">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>409.7494969283218</v>
+        <v>481.8574351880024</v>
       </c>
       <c r="AB7" t="n">
-        <v>560.6373385693337</v>
+        <v>659.2986008739485</v>
       </c>
       <c r="AC7" t="n">
-        <v>507.1308978357224</v>
+        <v>596.3760677379362</v>
       </c>
       <c r="AD7" t="n">
-        <v>409749.4969283218</v>
+        <v>481857.4351880024</v>
       </c>
       <c r="AE7" t="n">
-        <v>560637.3385693337</v>
+        <v>659298.6008739485</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.840300251839844e-06</v>
+        <v>2.781234670723119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.24074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>507130.8978357224</v>
+        <v>596376.0677379362</v>
       </c>
     </row>
     <row r="8">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>411.5952716509141</v>
+        <v>483.7032099105948</v>
       </c>
       <c r="AB8" t="n">
-        <v>563.1628089746182</v>
+        <v>661.824071279233</v>
       </c>
       <c r="AC8" t="n">
-        <v>509.4153408900465</v>
+        <v>598.6605107922603</v>
       </c>
       <c r="AD8" t="n">
-        <v>411595.2716509141</v>
+        <v>483703.2099105948</v>
       </c>
       <c r="AE8" t="n">
-        <v>563162.8089746182</v>
+        <v>661824.071279233</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.839314304208781e-06</v>
+        <v>2.779744614015096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.24652777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>509415.3408900466</v>
+        <v>598660.5107922603</v>
       </c>
     </row>
   </sheetData>
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.7184984525158</v>
+        <v>500.780085606497</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.5408780222709</v>
+        <v>685.1894059849513</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.993818786485</v>
+        <v>619.7958907471179</v>
       </c>
       <c r="AD2" t="n">
-        <v>417718.4984525158</v>
+        <v>500780.085606497</v>
       </c>
       <c r="AE2" t="n">
-        <v>571540.878022271</v>
+        <v>685189.4059849513</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.754904058459699e-06</v>
+        <v>2.773604788598921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>516993.818786485</v>
+        <v>619795.8907471179</v>
       </c>
     </row>
     <row r="3">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.7542753480454</v>
+        <v>422.2570508648853</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.4444972501663</v>
+        <v>577.7507256596759</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.1641803196437</v>
+        <v>522.611007280952</v>
       </c>
       <c r="AD3" t="n">
-        <v>346754.2753480454</v>
+        <v>422257.0508648853</v>
       </c>
       <c r="AE3" t="n">
-        <v>474444.4972501663</v>
+        <v>577750.7256596759</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940770762699546e-06</v>
+        <v>3.067364882454548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.77314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>429164.1803196437</v>
+        <v>522611.0072809519</v>
       </c>
     </row>
     <row r="4">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.0123476852826</v>
+        <v>417.5151232021225</v>
       </c>
       <c r="AB4" t="n">
-        <v>467.9563826228901</v>
+        <v>571.2626110323998</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.2952822462687</v>
+        <v>516.742109207577</v>
       </c>
       <c r="AD4" t="n">
-        <v>342012.3476852826</v>
+        <v>417515.1232021225</v>
       </c>
       <c r="AE4" t="n">
-        <v>467956.3826228902</v>
+        <v>571262.6110323998</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957141136379208e-06</v>
+        <v>3.093238061452672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.61689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>423295.2822462687</v>
+        <v>516742.109207577</v>
       </c>
     </row>
   </sheetData>
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1136.117787127352</v>
+        <v>1271.619368711825</v>
       </c>
       <c r="AB2" t="n">
-        <v>1554.486478326979</v>
+        <v>1739.885720158736</v>
       </c>
       <c r="AC2" t="n">
-        <v>1406.128470570926</v>
+        <v>1573.833468971731</v>
       </c>
       <c r="AD2" t="n">
-        <v>1136117.787127352</v>
+        <v>1271619.368711825</v>
       </c>
       <c r="AE2" t="n">
-        <v>1554486.478326979</v>
+        <v>1739885.720158736</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.021427197478943e-06</v>
+        <v>1.489124706322767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.50347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1406128.470570926</v>
+        <v>1573833.46897173</v>
       </c>
     </row>
     <row r="3">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>738.5861856764915</v>
+        <v>840.1910366512038</v>
       </c>
       <c r="AB3" t="n">
-        <v>1010.566203365417</v>
+        <v>1149.586442958685</v>
       </c>
       <c r="AC3" t="n">
-        <v>914.119183254795</v>
+        <v>1039.871526297413</v>
       </c>
       <c r="AD3" t="n">
-        <v>738586.1856764915</v>
+        <v>840191.0366512039</v>
       </c>
       <c r="AE3" t="n">
-        <v>1010566.203365416</v>
+        <v>1149586.442958685</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.362674658214884e-06</v>
+        <v>1.986624700454531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>914119.1832547949</v>
+        <v>1039871.526297413</v>
       </c>
     </row>
     <row r="4">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.5380218758298</v>
+        <v>738.6686901981018</v>
       </c>
       <c r="AB4" t="n">
-        <v>883.2536006580805</v>
+        <v>1010.679089691726</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.9571166654868</v>
+        <v>914.2212958685586</v>
       </c>
       <c r="AD4" t="n">
-        <v>645538.0218758298</v>
+        <v>738668.6901981018</v>
       </c>
       <c r="AE4" t="n">
-        <v>883253.6006580804</v>
+        <v>1010679.089691726</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.491032806904452e-06</v>
+        <v>2.173756285498728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.89699074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>798957.1166654867</v>
+        <v>914221.2958685586</v>
       </c>
     </row>
     <row r="5">
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.8400126843342</v>
+        <v>693.8853401520346</v>
       </c>
       <c r="AB5" t="n">
-        <v>822.0958125452828</v>
+        <v>949.404534456731</v>
       </c>
       <c r="AC5" t="n">
-        <v>743.6361420146798</v>
+        <v>858.7946981858129</v>
       </c>
       <c r="AD5" t="n">
-        <v>600840.0126843342</v>
+        <v>693885.3401520345</v>
       </c>
       <c r="AE5" t="n">
-        <v>822095.8125452828</v>
+        <v>949404.5344567309</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.559411518664415e-06</v>
+        <v>2.273444671826804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.98263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>743636.1420146797</v>
+        <v>858794.6981858129</v>
       </c>
     </row>
     <row r="6">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>578.5774921251497</v>
+        <v>663.1487264489608</v>
       </c>
       <c r="AB6" t="n">
-        <v>791.6352497631167</v>
+        <v>907.3493435844911</v>
       </c>
       <c r="AC6" t="n">
-        <v>716.0826925927752</v>
+        <v>820.7531957055885</v>
       </c>
       <c r="AD6" t="n">
-        <v>578577.4921251497</v>
+        <v>663148.7264489608</v>
       </c>
       <c r="AE6" t="n">
-        <v>791635.2497631167</v>
+        <v>907349.3435844911</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.602969296470565e-06</v>
+        <v>2.336946958865711e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.43865740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>716082.6925927752</v>
+        <v>820753.1957055884</v>
       </c>
     </row>
     <row r="7">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>563.3532288589437</v>
+        <v>639.6209622394578</v>
       </c>
       <c r="AB7" t="n">
-        <v>770.8047411152006</v>
+        <v>875.1576186213483</v>
       </c>
       <c r="AC7" t="n">
-        <v>697.2402184544138</v>
+        <v>791.6338037915584</v>
       </c>
       <c r="AD7" t="n">
-        <v>563353.2288589437</v>
+        <v>639620.9622394578</v>
       </c>
       <c r="AE7" t="n">
-        <v>770804.7411152006</v>
+        <v>875157.6186213483</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.630805354722455e-06</v>
+        <v>2.3775287665284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.1087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>697240.2184544138</v>
+        <v>791633.8037915584</v>
       </c>
     </row>
     <row r="8">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>541.4053015101917</v>
+        <v>626.0617871800234</v>
       </c>
       <c r="AB8" t="n">
-        <v>740.7746186424209</v>
+        <v>856.6053571164447</v>
       </c>
       <c r="AC8" t="n">
-        <v>670.0761287228947</v>
+        <v>774.8521440864201</v>
       </c>
       <c r="AD8" t="n">
-        <v>541405.3015101918</v>
+        <v>626061.7871800234</v>
       </c>
       <c r="AE8" t="n">
-        <v>740774.618642421</v>
+        <v>856605.3571164447</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.652611164378191e-06</v>
+        <v>2.409319157444046e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>670076.1287228947</v>
+        <v>774852.1440864202</v>
       </c>
     </row>
     <row r="9">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>530.4534645345113</v>
+        <v>615.1099502043429</v>
       </c>
       <c r="AB9" t="n">
-        <v>725.7898321313475</v>
+        <v>841.6205706053712</v>
       </c>
       <c r="AC9" t="n">
-        <v>656.521469205158</v>
+        <v>761.2974845686837</v>
       </c>
       <c r="AD9" t="n">
-        <v>530453.4645345113</v>
+        <v>615109.950204343</v>
       </c>
       <c r="AE9" t="n">
-        <v>725789.8321313475</v>
+        <v>841620.5706053711</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.668494408448419e-06</v>
+        <v>2.432475121197418e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.67476851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>656521.4692051581</v>
+        <v>761297.4845686837</v>
       </c>
     </row>
     <row r="10">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>521.9019473815188</v>
+        <v>606.5584330513506</v>
       </c>
       <c r="AB10" t="n">
-        <v>714.0892690963126</v>
+        <v>829.9200075703361</v>
       </c>
       <c r="AC10" t="n">
-        <v>645.9375914843434</v>
+        <v>750.713606847869</v>
       </c>
       <c r="AD10" t="n">
-        <v>521901.9473815188</v>
+        <v>606558.4330513505</v>
       </c>
       <c r="AE10" t="n">
-        <v>714089.2690963126</v>
+        <v>829920.0075703361</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.681308686715247e-06</v>
+        <v>2.451156881784884e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.5300925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>645937.5914843434</v>
+        <v>750713.606847869</v>
       </c>
     </row>
     <row r="11">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>512.24684005754</v>
+        <v>588.4292325834824</v>
       </c>
       <c r="AB11" t="n">
-        <v>700.8787253023717</v>
+        <v>805.1148356863217</v>
       </c>
       <c r="AC11" t="n">
-        <v>633.9878434489817</v>
+        <v>728.2758057541873</v>
       </c>
       <c r="AD11" t="n">
-        <v>512246.84005754</v>
+        <v>588429.2325834824</v>
       </c>
       <c r="AE11" t="n">
-        <v>700878.7253023717</v>
+        <v>805114.8356863217</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.691861621758516e-06</v>
+        <v>2.466541861092209e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>633987.8434489818</v>
+        <v>728275.8057541873</v>
       </c>
     </row>
     <row r="12">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>504.6460251192671</v>
+        <v>580.8284176452095</v>
       </c>
       <c r="AB12" t="n">
-        <v>690.4789549795377</v>
+        <v>794.7150653634875</v>
       </c>
       <c r="AC12" t="n">
-        <v>624.5806126095896</v>
+        <v>718.8685749147951</v>
       </c>
       <c r="AD12" t="n">
-        <v>504646.0251192671</v>
+        <v>580828.4176452095</v>
       </c>
       <c r="AE12" t="n">
-        <v>690478.9549795376</v>
+        <v>794715.0653634875</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.698430285407899e-06</v>
+        <v>2.476118225763095e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.34490740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>624580.6126095896</v>
+        <v>718868.5749147951</v>
       </c>
     </row>
     <row r="13">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>497.975893983296</v>
+        <v>574.1582865092385</v>
       </c>
       <c r="AB13" t="n">
-        <v>681.3525872938845</v>
+        <v>785.5886976778345</v>
       </c>
       <c r="AC13" t="n">
-        <v>616.3252526469178</v>
+        <v>710.6132149521234</v>
       </c>
       <c r="AD13" t="n">
-        <v>497975.893983296</v>
+        <v>574158.2865092384</v>
       </c>
       <c r="AE13" t="n">
-        <v>681352.5872938845</v>
+        <v>785588.6976778345</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.70440669249873e-06</v>
+        <v>2.484831147717754e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH13" t="n">
-        <v>616325.2526469177</v>
+        <v>710613.2149521234</v>
       </c>
     </row>
     <row r="14">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>492.5980930260088</v>
+        <v>568.7804855519511</v>
       </c>
       <c r="AB14" t="n">
-        <v>673.9944427722902</v>
+        <v>778.2305531562403</v>
       </c>
       <c r="AC14" t="n">
-        <v>609.6693591112437</v>
+        <v>703.9573214164494</v>
       </c>
       <c r="AD14" t="n">
-        <v>492598.0930260088</v>
+        <v>568780.4855519511</v>
       </c>
       <c r="AE14" t="n">
-        <v>673994.4427722902</v>
+        <v>778230.5531562403</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.708229439376649e-06</v>
+        <v>2.490404277977039e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.24074074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>609669.3591112437</v>
+        <v>703957.3214164494</v>
       </c>
     </row>
     <row r="15">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>490.5621545444637</v>
+        <v>566.7445470704062</v>
       </c>
       <c r="AB15" t="n">
-        <v>671.2087819225737</v>
+        <v>775.4448923065237</v>
       </c>
       <c r="AC15" t="n">
-        <v>607.1495578233246</v>
+        <v>701.4375201285301</v>
       </c>
       <c r="AD15" t="n">
-        <v>490562.1545444637</v>
+        <v>566744.5470704061</v>
       </c>
       <c r="AE15" t="n">
-        <v>671208.7819225737</v>
+        <v>775444.8923065236</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.711406088190695e-06</v>
+        <v>2.495035470727714e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.20601851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>607149.5578233246</v>
+        <v>701437.5201285301</v>
       </c>
     </row>
   </sheetData>
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.8891156215738</v>
+        <v>442.5074157039124</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.7844092975503</v>
+        <v>605.4581682154776</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.6583183049624</v>
+        <v>547.6740904068678</v>
       </c>
       <c r="AD2" t="n">
-        <v>360889.1156215738</v>
+        <v>442507.4157039124</v>
       </c>
       <c r="AE2" t="n">
-        <v>493784.4092975503</v>
+        <v>605458.1682154776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865075817914623e-06</v>
+        <v>2.988289562278096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.99421296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>446658.3183049624</v>
+        <v>547674.0904068678</v>
       </c>
     </row>
     <row r="3">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.0958879907096</v>
+        <v>397.3641669465758</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.0740479334723</v>
+        <v>543.6911836861135</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.8831212535241</v>
+        <v>491.8020601904788</v>
       </c>
       <c r="AD3" t="n">
-        <v>323095.8879907096</v>
+        <v>397364.1669465759</v>
       </c>
       <c r="AE3" t="n">
-        <v>442074.0479334723</v>
+        <v>543691.1836861135</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977708484341114e-06</v>
+        <v>3.168753551045141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>399883.121253524</v>
+        <v>491802.0601904788</v>
       </c>
     </row>
     <row r="4">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.1329418144063</v>
+        <v>399.4012207702725</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.8612348435261</v>
+        <v>546.4783705961671</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.4043029567237</v>
+        <v>494.3232418936785</v>
       </c>
       <c r="AD4" t="n">
-        <v>325132.9418144063</v>
+        <v>399401.2207702725</v>
       </c>
       <c r="AE4" t="n">
-        <v>444861.2348435261</v>
+        <v>546478.3705961672</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.977837354668833e-06</v>
+        <v>3.168960031581488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>402404.3029567237</v>
+        <v>494323.2418936786</v>
       </c>
     </row>
   </sheetData>
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>853.4860294661665</v>
+        <v>968.6656681192156</v>
       </c>
       <c r="AB2" t="n">
-        <v>1167.777238661804</v>
+        <v>1325.371101633938</v>
       </c>
       <c r="AC2" t="n">
-        <v>1056.326217989569</v>
+        <v>1198.879543864019</v>
       </c>
       <c r="AD2" t="n">
-        <v>853486.0294661665</v>
+        <v>968665.6681192156</v>
       </c>
       <c r="AE2" t="n">
-        <v>1167777.238661804</v>
+        <v>1325371.101633938</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.208919400511006e-06</v>
+        <v>1.795055747726608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.79398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>1056326.217989569</v>
+        <v>1198879.543864019</v>
       </c>
     </row>
     <row r="3">
@@ -13485,28 +13485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>610.8942324937992</v>
+        <v>701.2889813349088</v>
       </c>
       <c r="AB3" t="n">
-        <v>835.8524396494657</v>
+        <v>959.5345229487366</v>
       </c>
       <c r="AC3" t="n">
-        <v>756.079855935587</v>
+        <v>867.9578947936695</v>
       </c>
       <c r="AD3" t="n">
-        <v>610894.2324937992</v>
+        <v>701288.9813349089</v>
       </c>
       <c r="AE3" t="n">
-        <v>835852.4396494657</v>
+        <v>959534.5229487366</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51471773754817e-06</v>
+        <v>2.249118328169746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>756079.8559355871</v>
+        <v>867957.8947936696</v>
       </c>
     </row>
     <row r="4">
@@ -13591,28 +13591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.1714690091247</v>
+        <v>631.5661283416835</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.4546786984993</v>
+        <v>864.1366395282217</v>
       </c>
       <c r="AC4" t="n">
-        <v>669.7867233981823</v>
+        <v>781.6646514750382</v>
       </c>
       <c r="AD4" t="n">
-        <v>541171.4690091248</v>
+        <v>631566.1283416834</v>
       </c>
       <c r="AE4" t="n">
-        <v>740454.6786984992</v>
+        <v>864136.6395282217</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.627006125631009e-06</v>
+        <v>2.415848977331184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.90740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>669786.7233981823</v>
+        <v>781664.6514750383</v>
       </c>
     </row>
     <row r="5">
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>513.9994871993176</v>
+        <v>596.1610232184546</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.2767744430867</v>
+        <v>815.6938127356195</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.15702614539</v>
+        <v>737.8451400815877</v>
       </c>
       <c r="AD5" t="n">
-        <v>513999.4871993177</v>
+        <v>596161.0232184546</v>
       </c>
       <c r="AE5" t="n">
-        <v>703276.7744430867</v>
+        <v>815693.8127356195</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.685445346547502e-06</v>
+        <v>2.502622056954584e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.21875</v>
       </c>
       <c r="AH5" t="n">
-        <v>636157.02614539</v>
+        <v>737845.1400815877</v>
       </c>
     </row>
     <row r="6">
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.7895015604371</v>
+        <v>571.0362889255947</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.7833599058981</v>
+        <v>781.3170428510803</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.9556146798194</v>
+        <v>706.7492408667293</v>
       </c>
       <c r="AD6" t="n">
-        <v>488789.5015604371</v>
+        <v>571036.2889255947</v>
       </c>
       <c r="AE6" t="n">
-        <v>668783.3599058981</v>
+        <v>781317.0428510803</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.719758797143105e-06</v>
+        <v>2.553572150641504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.83680555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>604955.6146798194</v>
+        <v>706749.2408667293</v>
       </c>
     </row>
     <row r="7">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.7840283637888</v>
+        <v>557.0308157289461</v>
       </c>
       <c r="AB7" t="n">
-        <v>649.620453600374</v>
+        <v>762.1541365455562</v>
       </c>
       <c r="AC7" t="n">
-        <v>587.6215892567866</v>
+        <v>689.4152154436966</v>
       </c>
       <c r="AD7" t="n">
-        <v>474784.0283637888</v>
+        <v>557030.8157289461</v>
       </c>
       <c r="AE7" t="n">
-        <v>649620.4536003741</v>
+        <v>762154.1365455561</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.744780187707925e-06</v>
+        <v>2.590724992204397e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>587621.5892567866</v>
+        <v>689415.2154436966</v>
       </c>
     </row>
     <row r="8">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>462.7787101778067</v>
+        <v>536.7923742295422</v>
       </c>
       <c r="AB8" t="n">
-        <v>633.194247621055</v>
+        <v>734.4630080290475</v>
       </c>
       <c r="AC8" t="n">
-        <v>572.7630773218087</v>
+        <v>664.3668893680605</v>
       </c>
       <c r="AD8" t="n">
-        <v>462778.7101778067</v>
+        <v>536792.3742295422</v>
       </c>
       <c r="AE8" t="n">
-        <v>633194.247621055</v>
+        <v>734463.0080290475</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.76196490113835e-06</v>
+        <v>2.616241597036182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>572763.0773218088</v>
+        <v>664366.8893680605</v>
       </c>
     </row>
     <row r="9">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>451.7320452674448</v>
+        <v>525.7457093191804</v>
       </c>
       <c r="AB9" t="n">
-        <v>618.079713346237</v>
+        <v>719.3484737542295</v>
       </c>
       <c r="AC9" t="n">
-        <v>559.0910529847974</v>
+        <v>650.6948650310489</v>
       </c>
       <c r="AD9" t="n">
-        <v>451732.0452674448</v>
+        <v>525745.7093191803</v>
       </c>
       <c r="AE9" t="n">
-        <v>618079.713346237</v>
+        <v>719348.4737542295</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.77467151334912e-06</v>
+        <v>2.635108923735906e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.25231481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>559091.0529847974</v>
+        <v>650694.865031049</v>
       </c>
     </row>
     <row r="10">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>446.554094749135</v>
+        <v>520.5677588008705</v>
       </c>
       <c r="AB10" t="n">
-        <v>610.9950130120309</v>
+        <v>712.2637734200233</v>
       </c>
       <c r="AC10" t="n">
-        <v>552.6825065070485</v>
+        <v>644.2863185533001</v>
       </c>
       <c r="AD10" t="n">
-        <v>446554.094749135</v>
+        <v>520567.7588008705</v>
       </c>
       <c r="AE10" t="n">
-        <v>610995.0130120309</v>
+        <v>712263.7734200233</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.78127671264811e-06</v>
+        <v>2.644916608980696e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.18287037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>552682.5065070485</v>
+        <v>644286.3185533001</v>
       </c>
     </row>
     <row r="11">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>445.7353922370658</v>
+        <v>519.7490562888013</v>
       </c>
       <c r="AB11" t="n">
-        <v>609.8748281164119</v>
+        <v>711.1435885244044</v>
       </c>
       <c r="AC11" t="n">
-        <v>551.6692304856782</v>
+        <v>643.2730425319298</v>
       </c>
       <c r="AD11" t="n">
-        <v>445735.3922370658</v>
+        <v>519749.0562888013</v>
       </c>
       <c r="AE11" t="n">
-        <v>609874.8281164119</v>
+        <v>711143.5885244044</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.780884878791391e-06</v>
+        <v>2.644334797144141e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.18865740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>551669.2304856782</v>
+        <v>643273.0425319298</v>
       </c>
     </row>
   </sheetData>
@@ -14630,28 +14630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.7113226595822</v>
+        <v>1113.003573629711</v>
       </c>
       <c r="AB2" t="n">
-        <v>1351.430206411045</v>
+        <v>1522.860591692377</v>
       </c>
       <c r="AC2" t="n">
-        <v>1222.451604255382</v>
+        <v>1377.52091416952</v>
       </c>
       <c r="AD2" t="n">
-        <v>987711.3226595821</v>
+        <v>1113003.573629711</v>
       </c>
       <c r="AE2" t="n">
-        <v>1351430.206411045</v>
+        <v>1522860.591692377</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.110787690319465e-06</v>
+        <v>1.63334940515383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.57060185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1222451.604255382</v>
+        <v>1377520.91416952</v>
       </c>
     </row>
     <row r="3">
@@ -14736,28 +14736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.7544282477186</v>
+        <v>769.6127442398117</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.3335091436383</v>
+        <v>1053.01810958691</v>
       </c>
       <c r="AC3" t="n">
-        <v>838.830100551723</v>
+        <v>952.5195391281338</v>
       </c>
       <c r="AD3" t="n">
-        <v>677754.4282477186</v>
+        <v>769612.7442398117</v>
       </c>
       <c r="AE3" t="n">
-        <v>927333.5091436383</v>
+        <v>1053018.10958691</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.43558326144828e-06</v>
+        <v>2.110942609978843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>838830.100551723</v>
+        <v>952519.5391281338</v>
       </c>
     </row>
     <row r="4">
@@ -14842,28 +14842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>596.3600208140234</v>
+        <v>679.8598306844699</v>
       </c>
       <c r="AB4" t="n">
-        <v>815.9660900250315</v>
+        <v>930.2142136414013</v>
       </c>
       <c r="AC4" t="n">
-        <v>738.0914316086415</v>
+        <v>841.4358746553139</v>
       </c>
       <c r="AD4" t="n">
-        <v>596360.0208140234</v>
+        <v>679859.8306844699</v>
       </c>
       <c r="AE4" t="n">
-        <v>815966.0900250315</v>
+        <v>930214.2136414014</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.558053459072501e-06</v>
+        <v>2.291027990994421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>738091.4316086415</v>
+        <v>841435.8746553139</v>
       </c>
     </row>
     <row r="5">
@@ -14948,28 +14948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>557.4692966116951</v>
+        <v>641.054357828162</v>
       </c>
       <c r="AB5" t="n">
-        <v>762.7540854337446</v>
+        <v>877.1188537027639</v>
       </c>
       <c r="AC5" t="n">
-        <v>689.9579060520297</v>
+        <v>793.4078613494141</v>
       </c>
       <c r="AD5" t="n">
-        <v>557469.2966116951</v>
+        <v>641054.357828162</v>
       </c>
       <c r="AE5" t="n">
-        <v>762754.0854337446</v>
+        <v>877118.8537027639</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.620358046847296e-06</v>
+        <v>2.382643303503913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.58912037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>689957.9060520297</v>
+        <v>793407.8613494141</v>
       </c>
     </row>
     <row r="6">
@@ -15054,28 +15054,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>538.7968401554383</v>
+        <v>622.211309171313</v>
       </c>
       <c r="AB6" t="n">
-        <v>737.2056067396539</v>
+        <v>851.3369632338263</v>
       </c>
       <c r="AC6" t="n">
-        <v>666.8477383069882</v>
+        <v>770.0865583217217</v>
       </c>
       <c r="AD6" t="n">
-        <v>538796.8401554383</v>
+        <v>622211.3091713131</v>
       </c>
       <c r="AE6" t="n">
-        <v>737205.606739654</v>
+        <v>851336.9632338263</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.657433664220325e-06</v>
+        <v>2.437160866229632e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.14930555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>666847.7383069881</v>
+        <v>770086.5583217216</v>
       </c>
     </row>
     <row r="7">
@@ -15160,28 +15160,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>515.6725305942418</v>
+        <v>599.1722509561372</v>
       </c>
       <c r="AB7" t="n">
-        <v>705.5659062254873</v>
+        <v>819.813907372309</v>
       </c>
       <c r="AC7" t="n">
-        <v>638.2276864032949</v>
+        <v>741.5720186687407</v>
       </c>
       <c r="AD7" t="n">
-        <v>515672.5305942418</v>
+        <v>599172.2509561372</v>
       </c>
       <c r="AE7" t="n">
-        <v>705565.9062254874</v>
+        <v>819813.907372309</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.685569450777076e-06</v>
+        <v>2.478532921966753e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.83101851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>638227.6864032949</v>
+        <v>741572.0186687408</v>
       </c>
     </row>
     <row r="8">
@@ -15266,28 +15266,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>503.0129962406854</v>
+        <v>586.5127166025809</v>
       </c>
       <c r="AB8" t="n">
-        <v>688.2445728237127</v>
+        <v>802.4925739705345</v>
       </c>
       <c r="AC8" t="n">
-        <v>622.5594767507416</v>
+        <v>725.9038090161873</v>
       </c>
       <c r="AD8" t="n">
-        <v>503012.9962406854</v>
+        <v>586512.7166025809</v>
       </c>
       <c r="AE8" t="n">
-        <v>688244.5728237127</v>
+        <v>802492.5739705345</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.703394266821802e-06</v>
+        <v>2.504743288661811e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.63425925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>622559.4767507416</v>
+        <v>725903.8090161873</v>
       </c>
     </row>
     <row r="9">
@@ -15372,28 +15372,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>491.4172928805374</v>
+        <v>566.5585966293372</v>
       </c>
       <c r="AB9" t="n">
-        <v>672.3788199200305</v>
+        <v>775.1904667094985</v>
       </c>
       <c r="AC9" t="n">
-        <v>608.2079290364627</v>
+        <v>701.2073765533964</v>
       </c>
       <c r="AD9" t="n">
-        <v>491417.2928805374</v>
+        <v>566558.5966293372</v>
       </c>
       <c r="AE9" t="n">
-        <v>672378.8199200305</v>
+        <v>775190.4667094985</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.7195188696438e-06</v>
+        <v>2.528453589610571e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.46064814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>608207.9290364627</v>
+        <v>701207.3765533965</v>
       </c>
     </row>
     <row r="10">
@@ -15478,28 +15478,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>480.5419590027187</v>
+        <v>555.6832627515186</v>
       </c>
       <c r="AB10" t="n">
-        <v>657.4987083225299</v>
+        <v>760.3103551119981</v>
       </c>
       <c r="AC10" t="n">
-        <v>594.7479544054598</v>
+        <v>687.7474019223936</v>
       </c>
       <c r="AD10" t="n">
-        <v>480541.9590027187</v>
+        <v>555683.2627515185</v>
       </c>
       <c r="AE10" t="n">
-        <v>657498.7083225299</v>
+        <v>760310.355111998</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.73355934012826e-06</v>
+        <v>2.549099293838062e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>594747.9544054598</v>
+        <v>687747.4019223936</v>
       </c>
     </row>
     <row r="11">
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>474.0237871835163</v>
+        <v>549.1650909323159</v>
       </c>
       <c r="AB11" t="n">
-        <v>648.5802580780515</v>
+        <v>751.3919048675197</v>
       </c>
       <c r="AC11" t="n">
-        <v>586.6806685351909</v>
+        <v>679.6801160521246</v>
       </c>
       <c r="AD11" t="n">
-        <v>474023.7871835163</v>
+        <v>549165.0909323159</v>
       </c>
       <c r="AE11" t="n">
-        <v>648580.2580780515</v>
+        <v>751391.9048675196</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.739482663613893e-06</v>
+        <v>2.557809200309035e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.24652777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>586680.6685351909</v>
+        <v>679680.1160521246</v>
       </c>
     </row>
     <row r="12">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>469.9886495524847</v>
+        <v>545.1299533012844</v>
       </c>
       <c r="AB12" t="n">
-        <v>643.0592047535657</v>
+        <v>745.8708515430337</v>
       </c>
       <c r="AC12" t="n">
-        <v>581.686536791147</v>
+        <v>674.6859843080807</v>
       </c>
       <c r="AD12" t="n">
-        <v>469988.6495524847</v>
+        <v>545129.9533012845</v>
       </c>
       <c r="AE12" t="n">
-        <v>643059.2047535657</v>
+        <v>745870.8515430337</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.7415119503636e-06</v>
+        <v>2.560793149748164e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>581686.536791147</v>
+        <v>674685.9843080807</v>
       </c>
     </row>
     <row r="13">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>470.3301570116585</v>
+        <v>545.4714607604583</v>
       </c>
       <c r="AB13" t="n">
-        <v>643.5264703254529</v>
+        <v>746.3381171149211</v>
       </c>
       <c r="AC13" t="n">
-        <v>582.1092071926647</v>
+        <v>675.1086547095986</v>
       </c>
       <c r="AD13" t="n">
-        <v>470330.1570116585</v>
+        <v>545471.4607604583</v>
       </c>
       <c r="AE13" t="n">
-        <v>643526.470325453</v>
+        <v>746338.1171149211</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.743980001815946e-06</v>
+        <v>2.564422277444403e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.20023148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>582109.2071926647</v>
+        <v>675108.6547095985</v>
       </c>
     </row>
   </sheetData>
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1303.206823976326</v>
+        <v>1449.015401663351</v>
       </c>
       <c r="AB2" t="n">
-        <v>1783.105069991801</v>
+        <v>1982.606798603644</v>
       </c>
       <c r="AC2" t="n">
-        <v>1612.928024715467</v>
+        <v>1793.38958835103</v>
       </c>
       <c r="AD2" t="n">
-        <v>1303206.823976326</v>
+        <v>1449015.401663351</v>
       </c>
       <c r="AE2" t="n">
-        <v>1783105.069991801</v>
+        <v>1982606.798603644</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.389653469616595e-07</v>
+        <v>1.358469248695707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.62731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1612928.024715467</v>
+        <v>1793389.58835103</v>
       </c>
     </row>
     <row r="3">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>809.8269377397249</v>
+        <v>912.8108802396752</v>
       </c>
       <c r="AB3" t="n">
-        <v>1108.040943258497</v>
+        <v>1248.94811671782</v>
       </c>
       <c r="AC3" t="n">
-        <v>1002.291070779137</v>
+        <v>1129.750261367962</v>
       </c>
       <c r="AD3" t="n">
-        <v>809826.937739725</v>
+        <v>912810.8802396752</v>
       </c>
       <c r="AE3" t="n">
-        <v>1108040.943258497</v>
+        <v>1248948.11671782</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295504311374287e-06</v>
+        <v>1.874300019962866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1002291.070779137</v>
+        <v>1129750.261367962</v>
       </c>
     </row>
     <row r="4">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>702.6635559958685</v>
+        <v>796.8949110868973</v>
       </c>
       <c r="AB4" t="n">
-        <v>961.4152766418158</v>
+        <v>1090.346773871348</v>
       </c>
       <c r="AC4" t="n">
-        <v>869.6591519939358</v>
+        <v>986.2856080843741</v>
       </c>
       <c r="AD4" t="n">
-        <v>702663.5559958685</v>
+        <v>796894.9110868974</v>
       </c>
       <c r="AE4" t="n">
-        <v>961415.2766418158</v>
+        <v>1090346.773871348</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.431661433344484e-06</v>
+        <v>2.071288400616041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.40046296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>869659.1519939358</v>
+        <v>986285.6080843741</v>
       </c>
     </row>
     <row r="5">
@@ -16411,28 +16411,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>652.0227933749699</v>
+        <v>737.757494112241</v>
       </c>
       <c r="AB5" t="n">
-        <v>892.1263511111313</v>
+        <v>1009.432351007917</v>
       </c>
       <c r="AC5" t="n">
-        <v>806.9830642682821</v>
+        <v>913.0935441749237</v>
       </c>
       <c r="AD5" t="n">
-        <v>652022.7933749699</v>
+        <v>737757.4941122411</v>
       </c>
       <c r="AE5" t="n">
-        <v>892126.3511111313</v>
+        <v>1009432.351007917</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505404384707037e-06</v>
+        <v>2.177977675207749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.35300925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>806983.064268282</v>
+        <v>913093.5441749238</v>
       </c>
     </row>
     <row r="6">
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>619.4254806240115</v>
+        <v>705.2454327073033</v>
       </c>
       <c r="AB6" t="n">
-        <v>847.5252697133269</v>
+        <v>964.9479142627623</v>
       </c>
       <c r="AC6" t="n">
-        <v>766.6386474810729</v>
+        <v>872.8546396384272</v>
       </c>
       <c r="AD6" t="n">
-        <v>619425.4806240115</v>
+        <v>705245.4327073033</v>
       </c>
       <c r="AE6" t="n">
-        <v>847525.2697133269</v>
+        <v>964947.9142627623</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.549184299119693e-06</v>
+        <v>2.241317251724146e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.77430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>766638.6474810729</v>
+        <v>872854.6396384272</v>
       </c>
     </row>
     <row r="7">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>599.9597676197412</v>
+        <v>685.609127502441</v>
       </c>
       <c r="AB7" t="n">
-        <v>820.8914224142354</v>
+        <v>938.0806551888237</v>
       </c>
       <c r="AC7" t="n">
-        <v>742.5466971873674</v>
+        <v>848.5515540620704</v>
       </c>
       <c r="AD7" t="n">
-        <v>599959.7676197413</v>
+        <v>685609.1275024409</v>
       </c>
       <c r="AE7" t="n">
-        <v>820891.4224142354</v>
+        <v>938080.6551888237</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.583647085434856e-06</v>
+        <v>2.29117706346801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.34606481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>742546.6971873674</v>
+        <v>848551.5540620704</v>
       </c>
     </row>
     <row r="8">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>587.0798183811432</v>
+        <v>664.317864764657</v>
       </c>
       <c r="AB8" t="n">
-        <v>803.2685076427284</v>
+        <v>908.9490102067687</v>
       </c>
       <c r="AC8" t="n">
-        <v>726.6056886677367</v>
+        <v>822.2001923905821</v>
       </c>
       <c r="AD8" t="n">
-        <v>587079.8183811433</v>
+        <v>664317.864764657</v>
       </c>
       <c r="AE8" t="n">
-        <v>803268.5076427284</v>
+        <v>908949.0102067686</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.604928253021177e-06</v>
+        <v>2.321966071641639e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.09143518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>726605.6886677367</v>
+        <v>822200.1923905821</v>
       </c>
     </row>
     <row r="9">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>568.5170044485454</v>
+        <v>654.2516156772656</v>
       </c>
       <c r="AB9" t="n">
-        <v>777.8700466865946</v>
+        <v>895.1759241138325</v>
       </c>
       <c r="AC9" t="n">
-        <v>703.6312211782927</v>
+        <v>809.741590303708</v>
       </c>
       <c r="AD9" t="n">
-        <v>568517.0044485454</v>
+        <v>654251.6156772656</v>
       </c>
       <c r="AE9" t="n">
-        <v>777870.0466865946</v>
+        <v>895175.9241138325</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.620968536052659e-06</v>
+        <v>2.345172712130718e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.90046296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>703631.2211782926</v>
+        <v>809741.590303708</v>
       </c>
     </row>
     <row r="10">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>558.2258802383725</v>
+        <v>643.9604914670927</v>
       </c>
       <c r="AB10" t="n">
-        <v>763.7892765298784</v>
+        <v>881.0951539571163</v>
       </c>
       <c r="AC10" t="n">
-        <v>690.8942999628484</v>
+        <v>797.0046690882638</v>
       </c>
       <c r="AD10" t="n">
-        <v>558225.8802383725</v>
+        <v>643960.4914670927</v>
       </c>
       <c r="AE10" t="n">
-        <v>763789.2765298784</v>
+        <v>881095.1539571163</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63367371073106e-06</v>
+        <v>2.363554209547811e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>690894.2999628484</v>
+        <v>797004.6690882638</v>
       </c>
     </row>
     <row r="11">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>552.330594763234</v>
+        <v>638.0652059919541</v>
       </c>
       <c r="AB11" t="n">
-        <v>755.7230868611545</v>
+        <v>873.0289642883922</v>
       </c>
       <c r="AC11" t="n">
-        <v>683.5979361151392</v>
+        <v>789.7083052405545</v>
       </c>
       <c r="AD11" t="n">
-        <v>552330.594763234</v>
+        <v>638065.2059919542</v>
       </c>
       <c r="AE11" t="n">
-        <v>755723.0868611544</v>
+        <v>873028.9642883922</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.643679035790301e-06</v>
+        <v>2.378029638763771e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.6400462962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>683597.9361151392</v>
+        <v>789708.3052405545</v>
       </c>
     </row>
     <row r="12">
@@ -17153,28 +17153,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>542.6227497621667</v>
+        <v>628.3573609908868</v>
       </c>
       <c r="AB12" t="n">
-        <v>742.4403850507991</v>
+        <v>859.7462624780369</v>
       </c>
       <c r="AC12" t="n">
-        <v>671.5829167231751</v>
+        <v>777.6932858485903</v>
       </c>
       <c r="AD12" t="n">
-        <v>542622.7497621666</v>
+        <v>628357.3609908868</v>
       </c>
       <c r="AE12" t="n">
-        <v>742440.3850507991</v>
+        <v>859746.2624780369</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.654849001861728e-06</v>
+        <v>2.394190038576299e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.51273148148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>671582.9167231751</v>
+        <v>777693.2858485903</v>
       </c>
     </row>
     <row r="13">
@@ -17259,28 +17259,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>535.4253427833862</v>
+        <v>612.5780483123283</v>
       </c>
       <c r="AB13" t="n">
-        <v>732.5925752952458</v>
+        <v>838.1563107370883</v>
       </c>
       <c r="AC13" t="n">
-        <v>662.674968109204</v>
+        <v>758.1638488001104</v>
       </c>
       <c r="AD13" t="n">
-        <v>535425.3427833862</v>
+        <v>612578.0483123283</v>
       </c>
       <c r="AE13" t="n">
-        <v>732592.5752952457</v>
+        <v>838156.3107370883</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.661678033251369e-06</v>
+        <v>2.404070093437986e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH13" t="n">
-        <v>662674.968109204</v>
+        <v>758163.8488001104</v>
       </c>
     </row>
     <row r="14">
@@ -17365,28 +17365,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>527.8981288815971</v>
+        <v>605.0508344105391</v>
       </c>
       <c r="AB14" t="n">
-        <v>722.2935091575774</v>
+        <v>827.8572445994201</v>
       </c>
       <c r="AC14" t="n">
-        <v>653.3588303888845</v>
+        <v>748.847711079791</v>
       </c>
       <c r="AD14" t="n">
-        <v>527898.1288815971</v>
+        <v>605050.8344105391</v>
       </c>
       <c r="AE14" t="n">
-        <v>722293.5091575774</v>
+        <v>827857.2445994201</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.668083558818396e-06</v>
+        <v>2.413337431719103e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.36805555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>653358.8303888845</v>
+        <v>748847.711079791</v>
       </c>
     </row>
     <row r="15">
@@ -17471,28 +17471,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>519.9738232116771</v>
+        <v>597.1265287406191</v>
       </c>
       <c r="AB15" t="n">
-        <v>711.4511245443001</v>
+        <v>817.0148599861427</v>
       </c>
       <c r="AC15" t="n">
-        <v>643.551227745716</v>
+        <v>739.0401084366224</v>
       </c>
       <c r="AD15" t="n">
-        <v>519973.8232116771</v>
+        <v>597126.5287406191</v>
       </c>
       <c r="AE15" t="n">
-        <v>711451.1245443001</v>
+        <v>817014.8599861427</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.67454202261325e-06</v>
+        <v>2.422681359572792e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.29282407407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>643551.227745716</v>
+        <v>739040.1084366224</v>
       </c>
     </row>
     <row r="16">
@@ -17577,28 +17577,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>517.418020411712</v>
+        <v>594.570725940654</v>
       </c>
       <c r="AB16" t="n">
-        <v>707.954162399326</v>
+        <v>813.5178978411685</v>
       </c>
       <c r="AC16" t="n">
-        <v>640.388010759841</v>
+        <v>735.8768914507475</v>
       </c>
       <c r="AD16" t="n">
-        <v>517418.020411712</v>
+        <v>594570.7259406541</v>
       </c>
       <c r="AE16" t="n">
-        <v>707954.162399326</v>
+        <v>813517.8978411686</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.67787713096633e-06</v>
+        <v>2.427506502644779e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.25810185185185</v>
       </c>
       <c r="AH16" t="n">
-        <v>640388.010759841</v>
+        <v>735876.8914507475</v>
       </c>
     </row>
     <row r="17">
@@ -17683,28 +17683,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>513.8557759164285</v>
+        <v>591.0084814453704</v>
       </c>
       <c r="AB17" t="n">
-        <v>703.0801423257433</v>
+        <v>808.643877767586</v>
       </c>
       <c r="AC17" t="n">
-        <v>635.9791603213509</v>
+        <v>731.4680410122575</v>
       </c>
       <c r="AD17" t="n">
-        <v>513855.7759164284</v>
+        <v>591008.4814453705</v>
       </c>
       <c r="AE17" t="n">
-        <v>703080.1423257433</v>
+        <v>808643.877767586</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.677612439827197e-06</v>
+        <v>2.427123554781923e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>635979.1603213509</v>
+        <v>731468.0410122575</v>
       </c>
     </row>
     <row r="18">
@@ -17789,28 +17789,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>513.7542258143288</v>
+        <v>590.9069313432709</v>
       </c>
       <c r="AB18" t="n">
-        <v>702.9411969959765</v>
+        <v>808.5049324378192</v>
       </c>
       <c r="AC18" t="n">
-        <v>635.853475738846</v>
+        <v>731.3423564297525</v>
       </c>
       <c r="AD18" t="n">
-        <v>513754.2258143289</v>
+        <v>590906.9313432709</v>
       </c>
       <c r="AE18" t="n">
-        <v>702941.1969959765</v>
+        <v>808504.9324378192</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.681265177547237e-06</v>
+        <v>2.432408235289337e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>635853.475738846</v>
+        <v>731342.3564297525</v>
       </c>
     </row>
     <row r="19">
@@ -17895,28 +17895,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>515.492281066713</v>
+        <v>592.644986595655</v>
       </c>
       <c r="AB19" t="n">
-        <v>705.3192808698744</v>
+        <v>810.883016311717</v>
       </c>
       <c r="AC19" t="n">
-        <v>638.0045986254809</v>
+        <v>733.4934793163874</v>
       </c>
       <c r="AD19" t="n">
-        <v>515492.2810667129</v>
+        <v>592644.9865956551</v>
       </c>
       <c r="AE19" t="n">
-        <v>705319.2808698744</v>
+        <v>810883.016311717</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.681000486408104e-06</v>
+        <v>2.432025287426481e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>638004.5986254809</v>
+        <v>733493.4793163873</v>
       </c>
     </row>
   </sheetData>
@@ -18192,28 +18192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.5283643841196</v>
+        <v>844.6032922151137</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.855333839184</v>
+        <v>1155.623485676203</v>
       </c>
       <c r="AC2" t="n">
-        <v>915.2852809254524</v>
+        <v>1045.332402131015</v>
       </c>
       <c r="AD2" t="n">
-        <v>739528.3643841196</v>
+        <v>844603.2922151136</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011855.333839184</v>
+        <v>1155623.485676203</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.317177217070522e-06</v>
+        <v>1.977984760831995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.16203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>915285.2809254524</v>
+        <v>1045332.402131015</v>
       </c>
     </row>
     <row r="3">
@@ -18298,28 +18298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.3661538384788</v>
+        <v>633.3347145490955</v>
       </c>
       <c r="AB3" t="n">
-        <v>744.8257874215692</v>
+        <v>866.5564972017196</v>
       </c>
       <c r="AC3" t="n">
-        <v>673.7406596396121</v>
+        <v>783.8535613284691</v>
       </c>
       <c r="AD3" t="n">
-        <v>544366.1538384788</v>
+        <v>633334.7145490955</v>
       </c>
       <c r="AE3" t="n">
-        <v>744825.7874215692</v>
+        <v>866556.4972017196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.602501661413552e-06</v>
+        <v>2.406452088909954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.68287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>673740.6596396121</v>
+        <v>783853.5613284692</v>
       </c>
     </row>
     <row r="4">
@@ -18404,28 +18404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.2386370222289</v>
+        <v>574.0261371536261</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.8708633267254</v>
+        <v>785.4078850994675</v>
       </c>
       <c r="AC4" t="n">
-        <v>610.4621353180275</v>
+        <v>710.4496588724637</v>
       </c>
       <c r="AD4" t="n">
-        <v>493238.6370222289</v>
+        <v>574026.1371536261</v>
       </c>
       <c r="AE4" t="n">
-        <v>674870.8633267254</v>
+        <v>785407.8850994676</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.703298735288247e-06</v>
+        <v>2.557817503887315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.45601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>610462.1353180276</v>
+        <v>710449.6588724637</v>
       </c>
     </row>
     <row r="5">
@@ -18510,28 +18510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>462.050615833399</v>
+        <v>542.9233673108166</v>
       </c>
       <c r="AB5" t="n">
-        <v>632.1980368177809</v>
+        <v>742.8517032431723</v>
       </c>
       <c r="AC5" t="n">
-        <v>571.8619434794085</v>
+        <v>671.9549792845569</v>
       </c>
       <c r="AD5" t="n">
-        <v>462050.615833399</v>
+        <v>542923.3673108167</v>
       </c>
       <c r="AE5" t="n">
-        <v>632198.0368177809</v>
+        <v>742851.7032431724</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.754384525002013e-06</v>
+        <v>2.634532248296295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>571861.9434794085</v>
+        <v>671954.9792845569</v>
       </c>
     </row>
     <row r="6">
@@ -18616,28 +18616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>445.167961671512</v>
+        <v>526.0407131489296</v>
       </c>
       <c r="AB6" t="n">
-        <v>609.0984445833516</v>
+        <v>719.7521110087431</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.9669439073519</v>
+        <v>651.0599797125002</v>
       </c>
       <c r="AD6" t="n">
-        <v>445167.9616715121</v>
+        <v>526040.7131489296</v>
       </c>
       <c r="AE6" t="n">
-        <v>609098.4445833516</v>
+        <v>719752.1110087431</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.787888097852409e-06</v>
+        <v>2.684844048160929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.53587962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>550966.9439073519</v>
+        <v>651059.9797125002</v>
       </c>
     </row>
     <row r="7">
@@ -18722,28 +18722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.3891841378145</v>
+        <v>501.1662158905844</v>
       </c>
       <c r="AB7" t="n">
-        <v>586.1409809343247</v>
+        <v>685.7177264745056</v>
       </c>
       <c r="AC7" t="n">
-        <v>530.2005083679854</v>
+        <v>620.2737890706517</v>
       </c>
       <c r="AD7" t="n">
-        <v>428389.1841378146</v>
+        <v>501166.2158905844</v>
       </c>
       <c r="AE7" t="n">
-        <v>586140.9809343247</v>
+        <v>685717.7264745056</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.810510168409514e-06</v>
+        <v>2.718815263454144e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.30439814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>530200.5083679855</v>
+        <v>620273.7890706516</v>
       </c>
     </row>
     <row r="8">
@@ -18828,28 +18828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>422.5518229466243</v>
+        <v>495.3288546993941</v>
       </c>
       <c r="AB8" t="n">
-        <v>578.1540458263378</v>
+        <v>677.7307913665186</v>
       </c>
       <c r="AC8" t="n">
-        <v>522.9758351369709</v>
+        <v>613.0491158396371</v>
       </c>
       <c r="AD8" t="n">
-        <v>422551.8229466243</v>
+        <v>495328.8546993941</v>
       </c>
       <c r="AE8" t="n">
-        <v>578154.0458263378</v>
+        <v>677730.7913665186</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.818929014920639e-06</v>
+        <v>2.731457715727821e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>522975.8351369709</v>
+        <v>613049.1158396371</v>
       </c>
     </row>
     <row r="9">
@@ -18934,28 +18934,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>423.2122393914581</v>
+        <v>495.9892711442279</v>
       </c>
       <c r="AB9" t="n">
-        <v>579.0576567416764</v>
+        <v>678.6344022818573</v>
       </c>
       <c r="AC9" t="n">
-        <v>523.7932066947757</v>
+        <v>613.8664873974419</v>
       </c>
       <c r="AD9" t="n">
-        <v>423212.239391458</v>
+        <v>495989.2711442279</v>
       </c>
       <c r="AE9" t="n">
-        <v>579057.6567416764</v>
+        <v>678634.4022818573</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.82156348389691e-06</v>
+        <v>2.735413857255638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.19444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>523793.2066947757</v>
+        <v>613866.4873974419</v>
       </c>
     </row>
   </sheetData>
@@ -19231,28 +19231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.3516220143482</v>
+        <v>665.5645850647418</v>
       </c>
       <c r="AB2" t="n">
-        <v>781.7484954946272</v>
+        <v>910.6548279227626</v>
       </c>
       <c r="AC2" t="n">
-        <v>707.1395162755236</v>
+        <v>823.7432092578919</v>
       </c>
       <c r="AD2" t="n">
-        <v>571351.6220143482</v>
+        <v>665564.5850647418</v>
       </c>
       <c r="AE2" t="n">
-        <v>781748.4954946272</v>
+        <v>910654.8279227626</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50706687547969e-06</v>
+        <v>2.311458920614317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.91087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>707139.5162755237</v>
+        <v>823743.2092578919</v>
       </c>
     </row>
     <row r="3">
@@ -19337,28 +19337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.7087448931535</v>
+        <v>528.2906648139578</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.3113445124191</v>
+        <v>722.8305941376965</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.5868933870488</v>
+        <v>653.8446567323048</v>
       </c>
       <c r="AD3" t="n">
-        <v>449708.7448931535</v>
+        <v>528290.6648139579</v>
       </c>
       <c r="AE3" t="n">
-        <v>615311.3445124191</v>
+        <v>722830.5941376965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.751065906463458e-06</v>
+        <v>2.685691641115962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.71643518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>556586.8933870489</v>
+        <v>653844.6567323047</v>
       </c>
     </row>
     <row r="4">
@@ -19443,28 +19443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.1011767706511</v>
+        <v>487.5977558368839</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.750278327742</v>
+        <v>667.152760830822</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.3284973785914</v>
+        <v>603.4806376919083</v>
       </c>
       <c r="AD4" t="n">
-        <v>409101.1767706511</v>
+        <v>487597.7558368839</v>
       </c>
       <c r="AE4" t="n">
-        <v>559750.278327742</v>
+        <v>667152.7608308219</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.834765329561312e-06</v>
+        <v>2.814065359175573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.81365740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>506328.4973785913</v>
+        <v>603480.6376919083</v>
       </c>
     </row>
     <row r="5">
@@ -19549,28 +19549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.6583886316313</v>
+        <v>459.2968652143346</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.7795537237732</v>
+        <v>628.4302337338738</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.0272594736668</v>
+        <v>568.4537342336848</v>
       </c>
       <c r="AD5" t="n">
-        <v>388658.3886316313</v>
+        <v>459296.8652143346</v>
       </c>
       <c r="AE5" t="n">
-        <v>531779.5537237732</v>
+        <v>628430.2337338738</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.878852196039797e-06</v>
+        <v>2.881683447305332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.37384259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>481027.2594736668</v>
+        <v>568453.7342336848</v>
       </c>
     </row>
     <row r="6">
@@ -19655,28 +19655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>385.5588700384358</v>
+        <v>456.1973466211392</v>
       </c>
       <c r="AB6" t="n">
-        <v>527.5386556434536</v>
+        <v>624.1893356535542</v>
       </c>
       <c r="AC6" t="n">
-        <v>477.1911067539951</v>
+        <v>564.617581514013</v>
       </c>
       <c r="AD6" t="n">
-        <v>385558.8700384359</v>
+        <v>456197.3466211392</v>
       </c>
       <c r="AE6" t="n">
-        <v>527538.6556434536</v>
+        <v>624189.3356535542</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.885772461955229e-06</v>
+        <v>2.892297382654523e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>477191.1067539951</v>
+        <v>564617.581514013</v>
       </c>
     </row>
     <row r="7">
@@ -19761,28 +19761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.3853614817183</v>
+        <v>458.0238380644217</v>
       </c>
       <c r="AB7" t="n">
-        <v>530.0377418152683</v>
+        <v>626.6884218253689</v>
       </c>
       <c r="AC7" t="n">
-        <v>479.4516836490612</v>
+        <v>566.8781584090792</v>
       </c>
       <c r="AD7" t="n">
-        <v>387385.3614817184</v>
+        <v>458023.8380644217</v>
       </c>
       <c r="AE7" t="n">
-        <v>530037.7418152683</v>
+        <v>626688.4218253689</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.885593489560865e-06</v>
+        <v>2.892022884326527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>479451.6836490612</v>
+        <v>566878.1584090792</v>
       </c>
     </row>
   </sheetData>
@@ -36703,28 +36703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.9735082827376</v>
+        <v>556.1537770731509</v>
       </c>
       <c r="AB2" t="n">
-        <v>645.7749760340848</v>
+        <v>760.9541335644824</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.1431186722624</v>
+        <v>688.3297390629216</v>
       </c>
       <c r="AD2" t="n">
-        <v>471973.5082827376</v>
+        <v>556153.7770731508</v>
       </c>
       <c r="AE2" t="n">
-        <v>645774.9760340848</v>
+        <v>760954.1335644824</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.662607256088073e-06</v>
+        <v>2.59779104210172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.48148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>584143.1186722624</v>
+        <v>688329.7390629216</v>
       </c>
     </row>
     <row r="3">
@@ -36809,28 +36809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.7888191223516</v>
+        <v>455.8032494417253</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.2215262415909</v>
+        <v>623.6501145063396</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.71336654417</v>
+        <v>564.1298228762869</v>
       </c>
       <c r="AD3" t="n">
-        <v>386788.8191223516</v>
+        <v>455803.2494417253</v>
       </c>
       <c r="AE3" t="n">
-        <v>529221.526241591</v>
+        <v>623650.1145063397</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.874591069779566e-06</v>
+        <v>2.929011569536463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.05092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>478713.36654417</v>
+        <v>564129.8228762869</v>
       </c>
     </row>
     <row r="4">
@@ -36915,28 +36915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.8768165361562</v>
+        <v>425.8059060009584</v>
       </c>
       <c r="AB4" t="n">
-        <v>488.294604678739</v>
+        <v>582.6064258212899</v>
       </c>
       <c r="AC4" t="n">
-        <v>441.6924529339813</v>
+        <v>527.0032862341595</v>
       </c>
       <c r="AD4" t="n">
-        <v>356876.8165361562</v>
+        <v>425805.9060009584</v>
       </c>
       <c r="AE4" t="n">
-        <v>488294.604678739</v>
+        <v>582606.4258212899</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.932477770578001e-06</v>
+        <v>3.019458397697683e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.47800925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>441692.4529339813</v>
+        <v>527003.2862341595</v>
       </c>
     </row>
     <row r="5">
@@ -37021,28 +37021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.7176252675464</v>
+        <v>426.6467147323485</v>
       </c>
       <c r="AB5" t="n">
-        <v>489.4450362788903</v>
+        <v>583.7568574214413</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.7330889568551</v>
+        <v>528.0439222570332</v>
       </c>
       <c r="AD5" t="n">
-        <v>357717.6252675464</v>
+        <v>426646.7147323485</v>
       </c>
       <c r="AE5" t="n">
-        <v>489445.0362788903</v>
+        <v>583756.8574214412</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.933773741491398e-06</v>
+        <v>3.021483326686367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.46643518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>442733.0889568551</v>
+        <v>528043.9222570332</v>
       </c>
     </row>
   </sheetData>
@@ -37318,28 +37318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.5266286861072</v>
+        <v>385.273598077162</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.6127210701035</v>
+        <v>527.1483339607281</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.8019631293954</v>
+        <v>476.8380368248489</v>
       </c>
       <c r="AD2" t="n">
-        <v>312526.6286861072</v>
+        <v>385273.5980771621</v>
       </c>
       <c r="AE2" t="n">
-        <v>427612.7210701035</v>
+        <v>527148.3339607281</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.971272452744902e-06</v>
+        <v>3.21253566806724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>386801.9631293954</v>
+        <v>476838.0368248489</v>
       </c>
     </row>
     <row r="3">
@@ -37424,28 +37424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.4210217679357</v>
+        <v>384.1679911589906</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.0999809087264</v>
+        <v>525.635593799351</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.4335967658759</v>
+        <v>475.4696704613295</v>
       </c>
       <c r="AD3" t="n">
-        <v>311421.0217679357</v>
+        <v>384167.9911589905</v>
       </c>
       <c r="AE3" t="n">
-        <v>426099.9809087263</v>
+        <v>525635.593799351</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.984122385738837e-06</v>
+        <v>3.233476897179333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.31712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>385433.5967658759</v>
+        <v>475469.6704613295</v>
       </c>
     </row>
   </sheetData>
@@ -37721,28 +37721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>919.5844116421314</v>
+        <v>1035.745150591228</v>
       </c>
       <c r="AB2" t="n">
-        <v>1258.215961209776</v>
+        <v>1417.152208890052</v>
       </c>
       <c r="AC2" t="n">
-        <v>1138.133595789107</v>
+        <v>1281.901191059203</v>
       </c>
       <c r="AD2" t="n">
-        <v>919584.4116421314</v>
+        <v>1035745.150591228</v>
       </c>
       <c r="AE2" t="n">
-        <v>1258215.961209776</v>
+        <v>1417152.208890053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.158048243866364e-06</v>
+        <v>1.710878246484034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.67939814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1138133.595789107</v>
+        <v>1281901.191059203</v>
       </c>
     </row>
     <row r="3">
@@ -37827,28 +37827,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.6821026912982</v>
+        <v>731.9512547227313</v>
       </c>
       <c r="AB3" t="n">
-        <v>876.6095178017692</v>
+        <v>1001.487998121987</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.9471357519533</v>
+        <v>905.9073891784569</v>
       </c>
       <c r="AD3" t="n">
-        <v>640682.1026912981</v>
+        <v>731951.2547227313</v>
       </c>
       <c r="AE3" t="n">
-        <v>876609.5178017692</v>
+        <v>1001487.998121987</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.472902650167733e-06</v>
+        <v>2.176038102650457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.76504629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>792947.1357519532</v>
+        <v>905907.389178457</v>
       </c>
     </row>
     <row r="4">
@@ -37933,28 +37933,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.2305619463403</v>
+        <v>656.1172669925318</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.3193440025584</v>
+        <v>897.7285905501068</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.4650066100666</v>
+        <v>812.0506338379942</v>
       </c>
       <c r="AD4" t="n">
-        <v>573230.5619463404</v>
+        <v>656117.2669925317</v>
       </c>
       <c r="AE4" t="n">
-        <v>784319.3440025584</v>
+        <v>897728.5905501068</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.591720859442264e-06</v>
+        <v>2.351577844289616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.13888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>709465.0066100665</v>
+        <v>812050.6338379942</v>
       </c>
     </row>
     <row r="5">
@@ -38039,28 +38039,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>536.7156614932952</v>
+        <v>619.517025684915</v>
       </c>
       <c r="AB5" t="n">
-        <v>734.3580462789872</v>
+        <v>847.650525704338</v>
       </c>
       <c r="AC5" t="n">
-        <v>664.2719450201112</v>
+        <v>766.7519492160999</v>
       </c>
       <c r="AD5" t="n">
-        <v>536715.6614932952</v>
+        <v>619517.025684915</v>
       </c>
       <c r="AE5" t="n">
-        <v>734358.0462789872</v>
+        <v>847650.525704338</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.650880695109024e-06</v>
+        <v>2.438979449916946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.41550925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>664271.9450201112</v>
+        <v>766751.9492160999</v>
       </c>
     </row>
     <row r="6">
@@ -38145,28 +38145,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.9317265507049</v>
+        <v>591.8183420883452</v>
       </c>
       <c r="AB6" t="n">
-        <v>696.342840749834</v>
+        <v>809.7519648278341</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.8848573519844</v>
+        <v>732.4703737986854</v>
       </c>
       <c r="AD6" t="n">
-        <v>508931.7265507049</v>
+        <v>591818.3420883452</v>
       </c>
       <c r="AE6" t="n">
-        <v>696342.840749834</v>
+        <v>809751.964827834</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.69015440623986e-06</v>
+        <v>2.497001676873665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.96412037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>629884.8573519844</v>
+        <v>732470.3737986854</v>
       </c>
     </row>
     <row r="7">
@@ -38251,28 +38251,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.6891452328271</v>
+        <v>578.5757607704674</v>
       </c>
       <c r="AB7" t="n">
-        <v>678.2237567692581</v>
+        <v>791.632880847258</v>
       </c>
       <c r="AC7" t="n">
-        <v>613.4950333162204</v>
+        <v>716.0805497629215</v>
       </c>
       <c r="AD7" t="n">
-        <v>495689.1452328271</v>
+        <v>578575.7607704673</v>
       </c>
       <c r="AE7" t="n">
-        <v>678223.7567692581</v>
+        <v>791632.880847258</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.713751868781095e-06</v>
+        <v>2.53186411507333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.70370370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>613495.0333162204</v>
+        <v>716080.5497629214</v>
       </c>
     </row>
     <row r="8">
@@ -38357,28 +38357,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>482.8071575256021</v>
+        <v>565.6937730632426</v>
       </c>
       <c r="AB8" t="n">
-        <v>660.5980528750449</v>
+        <v>774.0071769530449</v>
       </c>
       <c r="AC8" t="n">
-        <v>597.5515018638403</v>
+        <v>700.1370183105413</v>
       </c>
       <c r="AD8" t="n">
-        <v>482807.1575256021</v>
+        <v>565693.7730632426</v>
       </c>
       <c r="AE8" t="n">
-        <v>660598.0528750449</v>
+        <v>774007.176953045</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.731533055343857e-06</v>
+        <v>2.558133698787162e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.51273148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>597551.5018638403</v>
+        <v>700137.0183105413</v>
       </c>
     </row>
     <row r="9">
@@ -38463,28 +38463,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>470.798585685068</v>
+        <v>545.3880950920383</v>
       </c>
       <c r="AB9" t="n">
-        <v>644.1673951020266</v>
+        <v>746.2240525295553</v>
       </c>
       <c r="AC9" t="n">
-        <v>582.6889630081057</v>
+        <v>675.0054762881693</v>
       </c>
       <c r="AD9" t="n">
-        <v>470798.585685068</v>
+        <v>545388.0950920383</v>
       </c>
       <c r="AE9" t="n">
-        <v>644167.3951020266</v>
+        <v>746224.0525295553</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.748261772920038e-06</v>
+        <v>2.582848385022606e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>582688.9630081058</v>
+        <v>675005.4762881694</v>
       </c>
     </row>
     <row r="10">
@@ -38569,28 +38569,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>461.7741670603837</v>
+        <v>536.3636764673538</v>
       </c>
       <c r="AB10" t="n">
-        <v>631.8197874104823</v>
+        <v>733.8764448380109</v>
       </c>
       <c r="AC10" t="n">
-        <v>571.5197936646662</v>
+        <v>663.8363069447298</v>
       </c>
       <c r="AD10" t="n">
-        <v>461774.1670603837</v>
+        <v>536363.6764673538</v>
       </c>
       <c r="AE10" t="n">
-        <v>631819.7874104823</v>
+        <v>733876.4448380109</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.758177138635722e-06</v>
+        <v>2.597497156003216e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.23495370370371</v>
       </c>
       <c r="AH10" t="n">
-        <v>571519.7936646661</v>
+        <v>663836.3069447298</v>
       </c>
     </row>
     <row r="11">
@@ -38675,28 +38675,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>457.5676860251205</v>
+        <v>532.1571954320907</v>
       </c>
       <c r="AB11" t="n">
-        <v>626.0642944811892</v>
+        <v>728.1209519087179</v>
       </c>
       <c r="AC11" t="n">
-        <v>566.3135969026597</v>
+        <v>658.6301101827235</v>
       </c>
       <c r="AD11" t="n">
-        <v>457567.6860251204</v>
+        <v>532157.1954320907</v>
       </c>
       <c r="AE11" t="n">
-        <v>626064.2944811892</v>
+        <v>728120.9519087179</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.759340393831416e-06</v>
+        <v>2.599215726900383e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>566313.5969026597</v>
+        <v>658630.1101827235</v>
       </c>
     </row>
     <row r="12">
@@ -38781,28 +38781,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>457.8269034425196</v>
+        <v>532.4164128494897</v>
       </c>
       <c r="AB12" t="n">
-        <v>626.4189671875399</v>
+        <v>728.4756246150686</v>
       </c>
       <c r="AC12" t="n">
-        <v>566.6344201437026</v>
+        <v>658.9509334237664</v>
       </c>
       <c r="AD12" t="n">
-        <v>457826.9034425196</v>
+        <v>532416.4128494897</v>
       </c>
       <c r="AE12" t="n">
-        <v>626418.9671875399</v>
+        <v>728475.6246150685</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.763993414614195e-06</v>
+        <v>2.606090010489049e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH12" t="n">
-        <v>566634.4201437026</v>
+        <v>658950.9334237664</v>
       </c>
     </row>
     <row r="13">
@@ -38887,28 +38887,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>459.3401032692298</v>
+        <v>533.9296126761999</v>
       </c>
       <c r="AB13" t="n">
-        <v>628.4893939481098</v>
+        <v>730.5460513756384</v>
       </c>
       <c r="AC13" t="n">
-        <v>568.5072482801058</v>
+        <v>660.8237615601695</v>
       </c>
       <c r="AD13" t="n">
-        <v>459340.1032692298</v>
+        <v>533929.6126761999</v>
       </c>
       <c r="AE13" t="n">
-        <v>628489.3939481097</v>
+        <v>730546.0513756383</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.763938021509638e-06</v>
+        <v>2.60600817377966e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH13" t="n">
-        <v>568507.2482801059</v>
+        <v>660823.7615601695</v>
       </c>
     </row>
   </sheetData>
@@ -39184,28 +39184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1217.531955349531</v>
+        <v>1353.995680800837</v>
       </c>
       <c r="AB2" t="n">
-        <v>1665.880935028175</v>
+        <v>1852.596624545324</v>
       </c>
       <c r="AC2" t="n">
-        <v>1506.891596667662</v>
+        <v>1675.78740283441</v>
       </c>
       <c r="AD2" t="n">
-        <v>1217531.955349531</v>
+        <v>1353995.680800837</v>
       </c>
       <c r="AE2" t="n">
-        <v>1665880.935028175</v>
+        <v>1852596.624545324</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.792830297040642e-07</v>
+        <v>1.422084473267354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.54513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1506891.596667662</v>
+        <v>1675787.40283441</v>
       </c>
     </row>
     <row r="3">
@@ -39290,28 +39290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>779.6332511312165</v>
+        <v>881.8104530191042</v>
       </c>
       <c r="AB3" t="n">
-        <v>1066.728609189294</v>
+        <v>1206.531964552309</v>
       </c>
       <c r="AC3" t="n">
-        <v>964.9215278912735</v>
+        <v>1091.382247233684</v>
       </c>
       <c r="AD3" t="n">
-        <v>779633.2511312165</v>
+        <v>881810.4530191042</v>
       </c>
       <c r="AE3" t="n">
-        <v>1066728.609189294</v>
+        <v>1206531.964552309</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.326990958162163e-06</v>
+        <v>1.927015153462686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>964921.5278912735</v>
+        <v>1091382.247233684</v>
       </c>
     </row>
     <row r="4">
@@ -39396,28 +39396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>676.8317011787722</v>
+        <v>762.1216190943898</v>
       </c>
       <c r="AB4" t="n">
-        <v>926.0709932600604</v>
+        <v>1042.768421677827</v>
       </c>
       <c r="AC4" t="n">
-        <v>837.688077412122</v>
+        <v>943.2480670475662</v>
       </c>
       <c r="AD4" t="n">
-        <v>676831.7011787721</v>
+        <v>762121.6190943897</v>
       </c>
       <c r="AE4" t="n">
-        <v>926070.9932600604</v>
+        <v>1042768.421677827</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.462999524590047e-06</v>
+        <v>2.124522579489352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.11689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>837688.0774121219</v>
+        <v>943248.0670475662</v>
       </c>
     </row>
     <row r="5">
@@ -39502,28 +39502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>629.930511643163</v>
+        <v>715.1350887042089</v>
       </c>
       <c r="AB5" t="n">
-        <v>861.8987166029898</v>
+        <v>978.4793778985585</v>
       </c>
       <c r="AC5" t="n">
-        <v>779.6403127728461</v>
+        <v>885.0946793763516</v>
       </c>
       <c r="AD5" t="n">
-        <v>629930.5116431629</v>
+        <v>715135.0887042088</v>
       </c>
       <c r="AE5" t="n">
-        <v>861898.7166029898</v>
+        <v>978479.3778985585</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.533352464367107e-06</v>
+        <v>2.226686938791999e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.14467592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>779640.3127728461</v>
+        <v>885094.6793763515</v>
       </c>
     </row>
     <row r="6">
@@ -39608,28 +39608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>597.9246597790993</v>
+        <v>683.2144881861657</v>
       </c>
       <c r="AB6" t="n">
-        <v>818.1068980840474</v>
+        <v>934.8042040322656</v>
       </c>
       <c r="AC6" t="n">
-        <v>740.0279239511483</v>
+        <v>845.587802805366</v>
       </c>
       <c r="AD6" t="n">
-        <v>597924.6597790993</v>
+        <v>683214.4881861657</v>
       </c>
       <c r="AE6" t="n">
-        <v>818106.8980840475</v>
+        <v>934804.2040322656</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.57765666771685e-06</v>
+        <v>2.291024130158614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.57754629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>740027.9239511483</v>
+        <v>845587.802805366</v>
       </c>
     </row>
     <row r="7">
@@ -39714,28 +39714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>582.4476642138659</v>
+        <v>667.5669004203402</v>
       </c>
       <c r="AB7" t="n">
-        <v>796.9305899548402</v>
+        <v>913.3944841282112</v>
       </c>
       <c r="AC7" t="n">
-        <v>720.8726529486573</v>
+        <v>826.2213965202241</v>
       </c>
       <c r="AD7" t="n">
-        <v>582447.6642138659</v>
+        <v>667566.9004203401</v>
       </c>
       <c r="AE7" t="n">
-        <v>796930.5899548403</v>
+        <v>913394.4841282112</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.604719596750969e-06</v>
+        <v>2.330324077174124e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.24768518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>720872.6529486573</v>
+        <v>826221.3965202241</v>
       </c>
     </row>
     <row r="8">
@@ -39820,28 +39820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>562.365984504052</v>
+        <v>647.5704720565467</v>
       </c>
       <c r="AB8" t="n">
-        <v>769.4539498346907</v>
+        <v>886.0344886607108</v>
       </c>
       <c r="AC8" t="n">
-        <v>696.0183447978683</v>
+        <v>801.4726006201471</v>
       </c>
       <c r="AD8" t="n">
-        <v>562365.984504052</v>
+        <v>647570.4720565467</v>
       </c>
       <c r="AE8" t="n">
-        <v>769453.9498346907</v>
+        <v>886034.4886607109</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.625857505819039e-06</v>
+        <v>2.361019893777954e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.99884259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>696018.3447978683</v>
+        <v>801472.6006201471</v>
       </c>
     </row>
     <row r="9">
@@ -39926,28 +39926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>549.93334686638</v>
+        <v>635.1378344188748</v>
       </c>
       <c r="AB9" t="n">
-        <v>752.4430665295658</v>
+        <v>869.0236053555859</v>
       </c>
       <c r="AC9" t="n">
-        <v>680.6309563204599</v>
+        <v>786.0852121427388</v>
       </c>
       <c r="AD9" t="n">
-        <v>549933.3468663801</v>
+        <v>635137.8344188748</v>
       </c>
       <c r="AE9" t="n">
-        <v>752443.0665295658</v>
+        <v>869023.6053555859</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.642725130226893e-06</v>
+        <v>2.385514535310303e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.80208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>680630.9563204598</v>
+        <v>786085.2121427387</v>
       </c>
     </row>
     <row r="10">
@@ -40032,28 +40032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>541.3310363488047</v>
+        <v>626.5355239012996</v>
       </c>
       <c r="AB10" t="n">
-        <v>740.6730057722635</v>
+        <v>857.253544598284</v>
       </c>
       <c r="AC10" t="n">
-        <v>669.9842136424505</v>
+        <v>775.4384694647295</v>
       </c>
       <c r="AD10" t="n">
-        <v>541331.0363488047</v>
+        <v>626535.5239012996</v>
       </c>
       <c r="AE10" t="n">
-        <v>740673.0057722635</v>
+        <v>857253.5445982839</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656123148348321e-06</v>
+        <v>2.404970722097074e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.65162037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>669984.2136424505</v>
+        <v>775438.4694647294</v>
       </c>
     </row>
     <row r="11">
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>533.1805434469848</v>
+        <v>618.3850309994796</v>
       </c>
       <c r="AB11" t="n">
-        <v>729.5211418096241</v>
+        <v>846.1016806356444</v>
       </c>
       <c r="AC11" t="n">
-        <v>659.8966679246658</v>
+        <v>765.3509237469449</v>
       </c>
       <c r="AD11" t="n">
-        <v>533180.5434469847</v>
+        <v>618385.0309994796</v>
       </c>
       <c r="AE11" t="n">
-        <v>729521.141809624</v>
+        <v>846101.6806356444</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.66519750325128e-06</v>
+        <v>2.418148219123972e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>659896.6679246658</v>
+        <v>765350.9237469449</v>
       </c>
     </row>
     <row r="12">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>523.3197910675449</v>
+        <v>599.9953852878841</v>
       </c>
       <c r="AB12" t="n">
-        <v>716.029225378382</v>
+        <v>820.9401560791289</v>
       </c>
       <c r="AC12" t="n">
-        <v>647.6924010615979</v>
+        <v>742.5907797796816</v>
       </c>
       <c r="AD12" t="n">
-        <v>523319.7910675448</v>
+        <v>599995.3852878842</v>
       </c>
       <c r="AE12" t="n">
-        <v>716029.225378382</v>
+        <v>820940.1560791289</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.676513757600853e-06</v>
+        <v>2.434581333063396e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>647692.401061598</v>
+        <v>742590.7797796816</v>
       </c>
     </row>
     <row r="13">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>516.7828161148434</v>
+        <v>593.4584103351825</v>
       </c>
       <c r="AB13" t="n">
-        <v>707.0850478571144</v>
+        <v>811.9959785578615</v>
       </c>
       <c r="AC13" t="n">
-        <v>639.6018432897283</v>
+        <v>734.500222007812</v>
       </c>
       <c r="AD13" t="n">
-        <v>516782.8161148434</v>
+        <v>593458.4103351826</v>
       </c>
       <c r="AE13" t="n">
-        <v>707085.0478571145</v>
+        <v>811995.9785578614</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.682812427474672e-06</v>
+        <v>2.44372806629383e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>639601.8432897283</v>
+        <v>734500.222007812</v>
       </c>
     </row>
     <row r="14">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>509.5329051268031</v>
+        <v>586.2084993471423</v>
       </c>
       <c r="AB14" t="n">
-        <v>697.1653997997785</v>
+        <v>802.0763305005254</v>
       </c>
       <c r="AC14" t="n">
-        <v>630.628912520671</v>
+        <v>725.5272912387545</v>
       </c>
       <c r="AD14" t="n">
-        <v>509532.9051268031</v>
+        <v>586208.4993471423</v>
       </c>
       <c r="AE14" t="n">
-        <v>697165.3997997785</v>
+        <v>802076.3305005254</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.689538125814512e-06</v>
+        <v>2.453494917031413e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH14" t="n">
-        <v>630628.9125206709</v>
+        <v>725527.2912387545</v>
       </c>
     </row>
     <row r="15">
@@ -40562,28 +40562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>503.9050429335555</v>
+        <v>580.5806371538948</v>
       </c>
       <c r="AB15" t="n">
-        <v>689.4651104632203</v>
+        <v>794.3760411639671</v>
       </c>
       <c r="AC15" t="n">
-        <v>623.6635279909698</v>
+        <v>718.5619067090535</v>
       </c>
       <c r="AD15" t="n">
-        <v>503905.0429335556</v>
+        <v>580580.6371538949</v>
       </c>
       <c r="AE15" t="n">
-        <v>689465.1104632203</v>
+        <v>794376.0411639671</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.692367189401905e-06</v>
+        <v>2.457603195516269e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.25231481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>623663.5279909698</v>
+        <v>718561.9067090534</v>
       </c>
     </row>
     <row r="16">
@@ -40668,28 +40668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>502.0792018683902</v>
+        <v>578.7547960887293</v>
       </c>
       <c r="AB16" t="n">
-        <v>686.9669141674381</v>
+        <v>791.877844868185</v>
       </c>
       <c r="AC16" t="n">
-        <v>621.4037560434167</v>
+        <v>716.3021347615003</v>
       </c>
       <c r="AD16" t="n">
-        <v>502079.2018683902</v>
+        <v>578754.7960887293</v>
       </c>
       <c r="AE16" t="n">
-        <v>686966.9141674381</v>
+        <v>791877.844868185</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.695836795688331e-06</v>
+        <v>2.462641650261847e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH16" t="n">
-        <v>621403.7560434167</v>
+        <v>716302.1347615003</v>
       </c>
     </row>
     <row r="17">
@@ -40774,28 +40774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>504.5632970093746</v>
+        <v>581.2388912297138</v>
       </c>
       <c r="AB17" t="n">
-        <v>690.365762729876</v>
+        <v>795.2766934306229</v>
       </c>
       <c r="AC17" t="n">
-        <v>624.4782232693693</v>
+        <v>719.376601987453</v>
       </c>
       <c r="AD17" t="n">
-        <v>504563.2970093746</v>
+        <v>581238.8912297138</v>
       </c>
       <c r="AE17" t="n">
-        <v>690365.762729876</v>
+        <v>795276.6934306229</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.695303010105804e-06</v>
+        <v>2.461866503377912e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH17" t="n">
-        <v>624478.2232693693</v>
+        <v>719376.6019874529</v>
       </c>
     </row>
   </sheetData>
@@ -41071,28 +41071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.707083698779</v>
+        <v>360.7784720553695</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.3900128911673</v>
+        <v>493.6330218890199</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.5591063977108</v>
+        <v>446.5213790982285</v>
       </c>
       <c r="AD2" t="n">
-        <v>289707.083698779</v>
+        <v>360778.4720553695</v>
       </c>
       <c r="AE2" t="n">
-        <v>396390.0128911673</v>
+        <v>493633.0218890199</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.954355599980928e-06</v>
+        <v>3.257794346534227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.30671296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>358559.1063977108</v>
+        <v>446521.3790982285</v>
       </c>
     </row>
   </sheetData>
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>625.5697242309096</v>
+        <v>720.8802159407002</v>
       </c>
       <c r="AB2" t="n">
-        <v>855.9320948811819</v>
+        <v>986.3401144406515</v>
       </c>
       <c r="AC2" t="n">
-        <v>774.2431370539614</v>
+        <v>892.20519825548</v>
       </c>
       <c r="AD2" t="n">
-        <v>625569.7242309096</v>
+        <v>720880.2159407001</v>
       </c>
       <c r="AE2" t="n">
-        <v>855932.094881182</v>
+        <v>986340.1144406515</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.439833444643223e-06</v>
+        <v>2.191292053579091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.62847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>774243.1370539614</v>
+        <v>892205.19825548</v>
       </c>
     </row>
     <row r="3">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>486.7324815897344</v>
+        <v>566.0726400018726</v>
       </c>
       <c r="AB3" t="n">
-        <v>665.9688544326665</v>
+        <v>774.5255594129084</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.4097216587697</v>
+        <v>700.6059270759898</v>
       </c>
       <c r="AD3" t="n">
-        <v>486732.4815897344</v>
+        <v>566072.6400018727</v>
       </c>
       <c r="AE3" t="n">
-        <v>665968.8544326664</v>
+        <v>774525.5594129084</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.699617210439336e-06</v>
+        <v>2.586658686960032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.01736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>602409.7216587698</v>
+        <v>700605.9270759898</v>
       </c>
     </row>
     <row r="4">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.9950045132495</v>
+        <v>515.4779628041434</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.4935528521992</v>
+        <v>705.2996899913496</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.515220790541</v>
+        <v>637.9868774729065</v>
       </c>
       <c r="AD4" t="n">
-        <v>443995.0045132495</v>
+        <v>515477.9628041434</v>
       </c>
       <c r="AE4" t="n">
-        <v>607493.5528521992</v>
+        <v>705299.6899913496</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.788974830717701e-06</v>
+        <v>2.722652640962981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.01620370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>549515.220790541</v>
+        <v>637986.8774729065</v>
       </c>
     </row>
     <row r="5">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.3628983450131</v>
+        <v>491.7029672486003</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.2131096827842</v>
+        <v>672.7696921934778</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.3654023727315</v>
+        <v>608.5614970087248</v>
       </c>
       <c r="AD5" t="n">
-        <v>412362.8983450131</v>
+        <v>491702.9672486003</v>
       </c>
       <c r="AE5" t="n">
-        <v>564213.1096827842</v>
+        <v>672769.6921934778</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.838003946054645e-06</v>
+        <v>2.797270376251441e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.50694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>510365.4023727315</v>
+        <v>608561.4970087248</v>
       </c>
     </row>
     <row r="6">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>399.1743158761204</v>
+        <v>470.5719333124426</v>
       </c>
       <c r="AB6" t="n">
-        <v>546.1679093096507</v>
+        <v>643.8572793266032</v>
       </c>
       <c r="AC6" t="n">
-        <v>494.042410596612</v>
+        <v>582.4084442470388</v>
       </c>
       <c r="AD6" t="n">
-        <v>399174.3158761204</v>
+        <v>470571.9333124426</v>
       </c>
       <c r="AE6" t="n">
-        <v>546167.9093096507</v>
+        <v>643857.2793266033</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.860696078572704e-06</v>
+        <v>2.831805682991663e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>494042.410596612</v>
+        <v>582408.4442470388</v>
       </c>
     </row>
     <row r="7">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>399.6992787902273</v>
+        <v>471.0968962265496</v>
       </c>
       <c r="AB7" t="n">
-        <v>546.8861867284611</v>
+        <v>644.5755567454138</v>
       </c>
       <c r="AC7" t="n">
-        <v>494.6921366266798</v>
+        <v>583.0581702771066</v>
       </c>
       <c r="AD7" t="n">
-        <v>399699.2787902273</v>
+        <v>471096.8962265496</v>
       </c>
       <c r="AE7" t="n">
-        <v>546886.1867284611</v>
+        <v>644575.5567454138</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.861813048826183e-06</v>
+        <v>2.8335056074167e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.27546296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>494692.1366266798</v>
+        <v>583058.1702771066</v>
       </c>
     </row>
   </sheetData>
@@ -42195,28 +42195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>791.9374139154676</v>
+        <v>906.093828348761</v>
       </c>
       <c r="AB2" t="n">
-        <v>1083.563707532058</v>
+        <v>1239.757549985256</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.1499080764129</v>
+        <v>1121.436829425312</v>
       </c>
       <c r="AD2" t="n">
-        <v>791937.4139154676</v>
+        <v>906093.828348761</v>
       </c>
       <c r="AE2" t="n">
-        <v>1083563.707532058</v>
+        <v>1239757.549985256</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.260542043579107e-06</v>
+        <v>1.881876697122778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>980149.9080764129</v>
+        <v>1121436.829425312</v>
       </c>
     </row>
     <row r="3">
@@ -42301,28 +42301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>582.0665775196268</v>
+        <v>663.7288785584898</v>
       </c>
       <c r="AB3" t="n">
-        <v>796.409170327424</v>
+        <v>908.1431332952534</v>
       </c>
       <c r="AC3" t="n">
-        <v>720.4009968786647</v>
+        <v>821.4712272404463</v>
       </c>
       <c r="AD3" t="n">
-        <v>582066.5775196268</v>
+        <v>663728.8785584897</v>
       </c>
       <c r="AE3" t="n">
-        <v>796409.1703274241</v>
+        <v>908143.1332952534</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.556674052559659e-06</v>
+        <v>2.323975340171872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>720400.9968786647</v>
+        <v>821471.2272404463</v>
       </c>
     </row>
     <row r="4">
@@ -42407,28 +42407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.5718902229725</v>
+        <v>599.2341017532843</v>
       </c>
       <c r="AB4" t="n">
-        <v>708.1646938633495</v>
+        <v>819.8985343616305</v>
       </c>
       <c r="AC4" t="n">
-        <v>640.578449396421</v>
+        <v>741.648568976976</v>
       </c>
       <c r="AD4" t="n">
-        <v>517571.8902229725</v>
+        <v>599234.1017532843</v>
       </c>
       <c r="AE4" t="n">
-        <v>708164.6938633495</v>
+        <v>819898.5343616304</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664553947268553e-06</v>
+        <v>2.485030388652677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.67592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>640578.449396421</v>
+        <v>741648.568976976</v>
       </c>
     </row>
     <row r="5">
@@ -42513,28 +42513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.617590539281</v>
+        <v>566.1136704251127</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.0211201301189</v>
+        <v>774.58169904812</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.6934904194831</v>
+        <v>700.6567088232092</v>
       </c>
       <c r="AD5" t="n">
-        <v>492617.590539281</v>
+        <v>566113.6704251127</v>
       </c>
       <c r="AE5" t="n">
-        <v>674021.1201301189</v>
+        <v>774581.6990481199</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.719229696633082e-06</v>
+        <v>2.566656399582613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.05092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>609693.490419483</v>
+        <v>700656.7088232092</v>
       </c>
     </row>
     <row r="6">
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>466.1620834064029</v>
+        <v>547.7389540821431</v>
       </c>
       <c r="AB6" t="n">
-        <v>637.8235281363126</v>
+        <v>749.4406015123958</v>
       </c>
       <c r="AC6" t="n">
-        <v>576.9505458019264</v>
+        <v>677.9150423505425</v>
       </c>
       <c r="AD6" t="n">
-        <v>466162.0834064029</v>
+        <v>547738.9540821431</v>
       </c>
       <c r="AE6" t="n">
-        <v>637823.5281363126</v>
+        <v>749440.6015123958</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.754208592189271e-06</v>
+        <v>2.618876766823504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.67476851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>576950.5458019264</v>
+        <v>677915.0423505425</v>
       </c>
     </row>
     <row r="7">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.195288897425</v>
+        <v>524.6060279286852</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.3452996007562</v>
+        <v>717.7891113965596</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.4267306564291</v>
+        <v>649.2843260282162</v>
       </c>
       <c r="AD7" t="n">
-        <v>451195.288897425</v>
+        <v>524606.0279286852</v>
       </c>
       <c r="AE7" t="n">
-        <v>617345.2996007563</v>
+        <v>717789.1113965596</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.778490058521965e-06</v>
+        <v>2.655126827578103e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>558426.7306564291</v>
+        <v>649284.3260282163</v>
       </c>
     </row>
     <row r="8">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>441.3458211470903</v>
+        <v>514.7565601783505</v>
       </c>
       <c r="AB8" t="n">
-        <v>603.8688232968987</v>
+        <v>704.312635092702</v>
       </c>
       <c r="AC8" t="n">
-        <v>546.2364303366583</v>
+        <v>637.0940257084455</v>
       </c>
       <c r="AD8" t="n">
-        <v>441345.8211470903</v>
+        <v>514756.5601783504</v>
       </c>
       <c r="AE8" t="n">
-        <v>603868.8232968986</v>
+        <v>704312.635092702</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.79326269887822e-06</v>
+        <v>2.677181060344887e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>546236.4303366583</v>
+        <v>637094.0257084456</v>
       </c>
     </row>
     <row r="9">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>435.6405198914498</v>
+        <v>509.0512589227098</v>
       </c>
       <c r="AB9" t="n">
-        <v>596.0625784188039</v>
+        <v>696.5063902146071</v>
       </c>
       <c r="AC9" t="n">
-        <v>539.1752025135954</v>
+        <v>630.0327978853827</v>
       </c>
       <c r="AD9" t="n">
-        <v>435640.5198914498</v>
+        <v>509051.2589227099</v>
       </c>
       <c r="AE9" t="n">
-        <v>596062.5784188039</v>
+        <v>696506.3902146071</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.798073712021062e-06</v>
+        <v>2.684363473314912e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>539175.2025135955</v>
+        <v>630032.7978853827</v>
       </c>
     </row>
     <row r="10">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>435.2321691441557</v>
+        <v>508.6429081754157</v>
       </c>
       <c r="AB10" t="n">
-        <v>595.5038549111925</v>
+        <v>695.9476667069961</v>
       </c>
       <c r="AC10" t="n">
-        <v>538.6698027933772</v>
+        <v>629.5273981651644</v>
       </c>
       <c r="AD10" t="n">
-        <v>435232.1691441557</v>
+        <v>508642.9081754157</v>
       </c>
       <c r="AE10" t="n">
-        <v>595503.8549111926</v>
+        <v>695947.666706996</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.80107352021601e-06</v>
+        <v>2.688841919049164e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.18865740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>538669.8027933772</v>
+        <v>629527.3981651644</v>
       </c>
     </row>
   </sheetData>
